--- a/data/materials.xlsx
+++ b/data/materials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthur\Documents\Python Scripts\Github\tacticus-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C127FAE-72F6-42B8-8538-B7F2E5B02CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7886411A-D71E-44AE-A4D9-834414D03862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4404" yWindow="1272" windowWidth="18480" windowHeight="12204" xr2:uid="{B0BE5269-9053-4C12-A8F0-02DB3C6B487B}"/>
+    <workbookView xWindow="12732" yWindow="0" windowWidth="17988" windowHeight="16680" xr2:uid="{B0BE5269-9053-4C12-A8F0-02DB3C6B487B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="355">
   <si>
     <t>Adamantium Blades</t>
   </si>
@@ -1074,6 +1074,33 @@
   </si>
   <si>
     <t>Common</t>
+  </si>
+  <si>
+    <t>Beast Hide</t>
+  </si>
+  <si>
+    <t>Wolf Tail Talisman</t>
+  </si>
+  <si>
+    <t>Wolf Tooth Necklace</t>
+  </si>
+  <si>
+    <t>Mjod</t>
+  </si>
+  <si>
+    <t>Relic Hilt</t>
+  </si>
+  <si>
+    <t>Mysterious Device</t>
+  </si>
+  <si>
+    <t>Blessing of Tzeentch</t>
+  </si>
+  <si>
+    <t>Beast Hide missing from list as uncraftable</t>
+  </si>
+  <si>
+    <t>Outdated: became Relic Hilt</t>
   </si>
 </sst>
 </file>
@@ -1111,12 +1138,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1132,7 +1171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1145,6 +1184,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1460,15 +1509,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936B0407-ED0B-4706-AFF8-0F4AEC6B0D4C}">
-  <dimension ref="A1:J328"/>
+  <dimension ref="A1:K334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K252" sqref="K252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
@@ -2532,7 +2583,7 @@
       </c>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>43</v>
       </c>
@@ -2552,7 +2603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>44</v>
       </c>
@@ -2578,7 +2629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>45</v>
       </c>
@@ -2590,7 +2641,7 @@
       </c>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>46</v>
       </c>
@@ -2602,7 +2653,7 @@
       </c>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>47</v>
       </c>
@@ -2614,7 +2665,7 @@
       </c>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>48</v>
       </c>
@@ -2634,7 +2685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>49</v>
       </c>
@@ -2646,7 +2697,7 @@
       </c>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>61</v>
       </c>
@@ -2659,8 +2710,20 @@
       <c r="D88" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E88" t="s">
+        <v>306</v>
+      </c>
+      <c r="F88">
+        <v>8</v>
+      </c>
+      <c r="G88" t="s">
+        <v>327</v>
+      </c>
+      <c r="H88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>62</v>
       </c>
@@ -2673,8 +2736,20 @@
       <c r="D89" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E89" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89" t="s">
+        <v>335</v>
+      </c>
+      <c r="H89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>63</v>
       </c>
@@ -2687,8 +2762,20 @@
       <c r="D90" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E90" t="s">
+        <v>101</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>64</v>
       </c>
@@ -2701,8 +2788,20 @@
       <c r="D91" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E91" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91">
+        <v>8</v>
+      </c>
+      <c r="G91" t="s">
+        <v>325</v>
+      </c>
+      <c r="H91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>65</v>
       </c>
@@ -2714,7 +2813,7 @@
       </c>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>66</v>
       </c>
@@ -2726,7 +2825,7 @@
       </c>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>67</v>
       </c>
@@ -2738,7 +2837,7 @@
       </c>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>68</v>
       </c>
@@ -2750,7 +2849,7 @@
       </c>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>69</v>
       </c>
@@ -2763,8 +2862,26 @@
       <c r="D96" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96" t="s">
+        <v>99</v>
+      </c>
+      <c r="F96">
+        <v>3</v>
+      </c>
+      <c r="G96" t="s">
+        <v>31</v>
+      </c>
+      <c r="H96">
+        <v>4</v>
+      </c>
+      <c r="I96" t="s">
+        <v>322</v>
+      </c>
+      <c r="J96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>70</v>
       </c>
@@ -2776,21 +2893,21 @@
       </c>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>71</v>
+        <v>346</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>134</v>
@@ -2800,21 +2917,21 @@
       </c>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>134</v>
@@ -2824,9 +2941,9 @@
       </c>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>134</v>
@@ -2834,13 +2951,11 @@
       <c r="C102" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>134</v>
@@ -2848,65 +2963,121 @@
       <c r="C103" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D103" s="1"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E103" t="s">
+        <v>34</v>
+      </c>
+      <c r="F103">
+        <v>6</v>
+      </c>
+      <c r="G103" t="s">
+        <v>328</v>
+      </c>
+      <c r="H103">
+        <v>4</v>
+      </c>
+      <c r="I103" t="s">
+        <v>315</v>
+      </c>
+      <c r="J103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E105" t="s">
+        <v>28</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E106" t="s">
+        <v>22</v>
+      </c>
+      <c r="F106">
+        <v>8</v>
+      </c>
+      <c r="G106" t="s">
+        <v>314</v>
+      </c>
+      <c r="H106">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D107" s="1"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E107" t="s">
+        <v>18</v>
+      </c>
+      <c r="F107">
+        <v>5</v>
+      </c>
+      <c r="G107" t="s">
+        <v>327</v>
+      </c>
+      <c r="H107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>134</v>
@@ -2916,9 +3087,9 @@
       </c>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>134</v>
@@ -2928,21 +3099,21 @@
       </c>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>134</v>
@@ -2952,87 +3123,121 @@
       </c>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D113" s="1"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E113" t="s">
+        <v>120</v>
+      </c>
+      <c r="F113">
+        <v>2</v>
+      </c>
+      <c r="G113" t="s">
+        <v>192</v>
+      </c>
+      <c r="H113">
+        <v>2</v>
+      </c>
+      <c r="I113" t="s">
+        <v>343</v>
+      </c>
+      <c r="J113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D115" s="1"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E115" t="s">
+        <v>344</v>
+      </c>
+      <c r="F115">
+        <v>8</v>
+      </c>
+      <c r="G115" t="s">
+        <v>38</v>
+      </c>
+      <c r="H115">
+        <v>4</v>
+      </c>
+      <c r="I115" t="s">
+        <v>343</v>
+      </c>
+      <c r="J115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>134</v>
@@ -3040,39 +3245,69 @@
       <c r="C118" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D118" s="1"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D118" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E118" t="s">
+        <v>19</v>
+      </c>
+      <c r="F118">
+        <v>4</v>
+      </c>
+      <c r="G118" t="s">
+        <v>330</v>
+      </c>
+      <c r="H118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E120" t="s">
+        <v>70</v>
+      </c>
+      <c r="F120">
+        <v>3</v>
+      </c>
+      <c r="G120" t="s">
+        <v>26</v>
+      </c>
+      <c r="H120">
+        <v>4</v>
+      </c>
+      <c r="I120" t="s">
+        <v>313</v>
+      </c>
+      <c r="J120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>134</v>
@@ -3080,11 +3315,25 @@
       <c r="C121" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D121" s="1"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D121" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E121" t="s">
+        <v>36</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+      <c r="G121" t="s">
+        <v>35</v>
+      </c>
+      <c r="H121">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>134</v>
@@ -3094,47 +3343,59 @@
       </c>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D124" s="1"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E124" t="s">
+        <v>307</v>
+      </c>
+      <c r="F124">
+        <v>5</v>
+      </c>
+      <c r="G124" t="s">
+        <v>103</v>
+      </c>
+      <c r="H124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>134</v>
@@ -3144,75 +3405,103 @@
       </c>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E129" t="s">
+        <v>25</v>
+      </c>
+      <c r="F129">
+        <v>2</v>
+      </c>
+      <c r="G129" t="s">
+        <v>314</v>
+      </c>
+      <c r="H129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D130" s="1"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E130" t="s">
+        <v>30</v>
+      </c>
+      <c r="F130">
+        <v>6</v>
+      </c>
+      <c r="G130" t="s">
+        <v>329</v>
+      </c>
+      <c r="H130">
+        <v>4</v>
+      </c>
+      <c r="I130" t="s">
+        <v>305</v>
+      </c>
+      <c r="J130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>134</v>
@@ -3223,62 +3512,110 @@
       <c r="D132" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E132" t="s">
+        <v>37</v>
+      </c>
+      <c r="F132">
+        <v>2</v>
+      </c>
+      <c r="G132" t="s">
+        <v>116</v>
+      </c>
+      <c r="H132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E133" t="s">
+        <v>104</v>
+      </c>
+      <c r="F133">
+        <v>2</v>
+      </c>
+      <c r="G133" t="s">
+        <v>162</v>
+      </c>
+      <c r="H133">
+        <v>2</v>
+      </c>
+      <c r="I133" t="s">
+        <v>323</v>
+      </c>
+      <c r="J133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D133" s="1"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D135" s="1"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E135" t="s">
+        <v>32</v>
+      </c>
+      <c r="F135">
+        <v>6</v>
+      </c>
+      <c r="G135" t="s">
+        <v>323</v>
+      </c>
+      <c r="H135">
+        <v>4</v>
+      </c>
+      <c r="I135" t="s">
+        <v>324</v>
+      </c>
+      <c r="J135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>134</v>
@@ -3289,10 +3626,28 @@
       <c r="D137" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E137" t="s">
+        <v>35</v>
+      </c>
+      <c r="F137">
+        <v>6</v>
+      </c>
+      <c r="G137" t="s">
+        <v>12</v>
+      </c>
+      <c r="H137">
+        <v>3</v>
+      </c>
+      <c r="I137" t="s">
+        <v>311</v>
+      </c>
+      <c r="J137">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>134</v>
@@ -3303,10 +3658,22 @@
       <c r="D138" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E138" t="s">
+        <v>24</v>
+      </c>
+      <c r="F138">
+        <v>5</v>
+      </c>
+      <c r="G138" t="s">
+        <v>23</v>
+      </c>
+      <c r="H138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>134</v>
@@ -3317,10 +3684,16 @@
       <c r="D139" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E139" t="s">
+        <v>24</v>
+      </c>
+      <c r="F139">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>134</v>
@@ -3328,11 +3701,31 @@
       <c r="C140" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D140" s="1"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D140" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E140" t="s">
+        <v>341</v>
+      </c>
+      <c r="F140">
+        <v>6</v>
+      </c>
+      <c r="G140" t="s">
+        <v>27</v>
+      </c>
+      <c r="H140">
+        <v>5</v>
+      </c>
+      <c r="I140" t="s">
+        <v>308</v>
+      </c>
+      <c r="J140">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>134</v>
@@ -3340,25 +3733,43 @@
       <c r="C141" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D142" s="1"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E142" t="s">
+        <v>44</v>
+      </c>
+      <c r="F142">
+        <v>2</v>
+      </c>
+      <c r="G142" t="s">
+        <v>11</v>
+      </c>
+      <c r="H142">
+        <v>2</v>
+      </c>
+      <c r="I142" t="s">
+        <v>322</v>
+      </c>
+      <c r="J142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>134</v>
@@ -3368,9 +3779,9 @@
       </c>
       <c r="D143" s="1"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>134</v>
@@ -3380,9 +3791,9 @@
       </c>
       <c r="D144" s="1"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>134</v>
@@ -3392,9 +3803,9 @@
       </c>
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>134</v>
@@ -3402,53 +3813,101 @@
       <c r="C146" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E147" t="s">
+        <v>40</v>
+      </c>
+      <c r="F147">
+        <v>8</v>
+      </c>
+      <c r="G147" t="s">
+        <v>318</v>
+      </c>
+      <c r="H147">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E148" t="s">
+        <v>16</v>
+      </c>
+      <c r="F148">
+        <v>2</v>
+      </c>
+      <c r="G148" t="s">
+        <v>12</v>
+      </c>
+      <c r="H148">
+        <v>2</v>
+      </c>
+      <c r="I148" t="s">
+        <v>311</v>
+      </c>
+      <c r="J148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D149" s="1"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E149" t="s">
+        <v>39</v>
+      </c>
+      <c r="F149">
+        <v>6</v>
+      </c>
+      <c r="G149" t="s">
+        <v>320</v>
+      </c>
+      <c r="H149">
+        <v>4</v>
+      </c>
+      <c r="I149" t="s">
+        <v>343</v>
+      </c>
+      <c r="J149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>134</v>
@@ -3458,49 +3917,59 @@
       </c>
       <c r="D150" s="1"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D152" s="1"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E152" t="s">
+        <v>334</v>
+      </c>
+      <c r="F152">
+        <v>8</v>
+      </c>
+      <c r="G152" t="s">
+        <v>327</v>
+      </c>
+      <c r="H152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>134</v>
@@ -3508,71 +3977,91 @@
       <c r="C154" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D154" s="1"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D154" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E154" t="s">
+        <v>309</v>
+      </c>
+      <c r="F154">
+        <v>6</v>
+      </c>
+      <c r="G154" t="s">
+        <v>49</v>
+      </c>
+      <c r="H154">
+        <v>5</v>
+      </c>
+      <c r="I154" t="s">
+        <v>332</v>
+      </c>
+      <c r="J154">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D155" s="1"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B158" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D159" s="1"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>133</v>
+        <v>347</v>
       </c>
       <c r="B160" s="5" t="s">
         <v>134</v>
@@ -3580,80 +4069,92 @@
       <c r="C160" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D161" s="1"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A163" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E164" t="s">
+        <v>61</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164" t="s">
+        <v>17</v>
+      </c>
+      <c r="H164">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E165" t="s">
+        <v>86</v>
+      </c>
+      <c r="F165">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>199</v>
@@ -3664,10 +4165,22 @@
       <c r="D166" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E166" t="s">
+        <v>102</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166" t="s">
+        <v>30</v>
+      </c>
+      <c r="H166">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>199</v>
@@ -3678,38 +4191,68 @@
       <c r="D167" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E167" t="s">
+        <v>122</v>
+      </c>
+      <c r="F167">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E168" t="s">
+        <v>125</v>
+      </c>
+      <c r="F168">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E169" t="s">
+        <v>96</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="G169" t="s">
+        <v>15</v>
+      </c>
+      <c r="H169">
+        <v>6</v>
+      </c>
+      <c r="I169" t="s">
+        <v>162</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>199</v>
@@ -3717,11 +4260,25 @@
       <c r="C170" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D170" s="1"/>
-    </row>
-    <row r="171" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D170" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E170" t="s">
+        <v>110</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170" t="s">
+        <v>82</v>
+      </c>
+      <c r="H170">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>199</v>
@@ -3729,11 +4286,25 @@
       <c r="C171" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D171" s="1"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D171" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E171" t="s">
+        <v>111</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+      <c r="G171" t="s">
+        <v>82</v>
+      </c>
+      <c r="H171">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>199</v>
@@ -3744,10 +4315,16 @@
       <c r="D172" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E172" t="s">
+        <v>100</v>
+      </c>
+      <c r="F172">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>199</v>
@@ -3755,41 +4332,43 @@
       <c r="C173" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D173" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D173" s="1"/>
+    </row>
+    <row r="174" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D174" s="1"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E175" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F175">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>199</v>
@@ -3800,10 +4379,16 @@
       <c r="D176" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E176" t="s">
+        <v>97</v>
+      </c>
+      <c r="F176">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>199</v>
@@ -3814,10 +4399,16 @@
       <c r="D177" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E177" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F177">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>199</v>
@@ -3828,24 +4419,42 @@
       <c r="D178" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E178" t="s">
+        <v>79</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178" t="s">
+        <v>17</v>
+      </c>
+      <c r="H178">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E179" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F179">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>199</v>
@@ -3856,10 +4465,16 @@
       <c r="D180" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E180" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F180">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>199</v>
@@ -3870,94 +4485,160 @@
       <c r="D181" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E181" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F181">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E182" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F182">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E183" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F183">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E184" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="G184" t="s">
+        <v>103</v>
+      </c>
+      <c r="H184">
+        <v>3</v>
+      </c>
+      <c r="I184" t="s">
+        <v>49</v>
+      </c>
+      <c r="J184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E185" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F185">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E186" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F186">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E187" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+      <c r="G187" t="s">
+        <v>10</v>
+      </c>
+      <c r="H187">
+        <v>7</v>
+      </c>
+      <c r="I187" t="s">
+        <v>333</v>
+      </c>
+      <c r="J187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>199</v>
@@ -3965,25 +4646,45 @@
       <c r="C188" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D188" s="1"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D188" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E188" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+      <c r="G188" t="s">
+        <v>78</v>
+      </c>
+      <c r="H188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E189" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F189">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>199</v>
@@ -3994,22 +4695,28 @@
       <c r="D190" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E190" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F190">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D191" s="1"/>
     </row>
-    <row r="192" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>199</v>
@@ -4020,10 +4727,22 @@
       <c r="D192" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E192" t="s">
+        <v>92</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+      <c r="G192" t="s">
+        <v>99</v>
+      </c>
+      <c r="H192">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>199</v>
@@ -4034,10 +4753,22 @@
       <c r="D193" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E193" t="s">
+        <v>75</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="G193" t="s">
+        <v>45</v>
+      </c>
+      <c r="H193">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>199</v>
@@ -4045,25 +4776,43 @@
       <c r="C194" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D194" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D194" s="1"/>
+    </row>
+    <row r="195" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D195" s="1"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E195" t="s">
+        <v>128</v>
+      </c>
+      <c r="F195">
+        <v>4</v>
+      </c>
+      <c r="G195" t="s">
+        <v>40</v>
+      </c>
+      <c r="H195">
+        <v>6</v>
+      </c>
+      <c r="I195" t="s">
+        <v>318</v>
+      </c>
+      <c r="J195">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>199</v>
@@ -4074,10 +4823,16 @@
       <c r="D196" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E196" t="s">
+        <v>91</v>
+      </c>
+      <c r="F196">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>199</v>
@@ -4088,52 +4843,71 @@
       <c r="D197" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E197" t="s">
+        <v>94</v>
+      </c>
+      <c r="F197">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="D198" s="1"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E199" t="s">
+        <v>346</v>
+      </c>
+      <c r="F199">
+        <v>9</v>
+      </c>
+      <c r="K199" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E200" t="s">
+        <v>95</v>
+      </c>
+      <c r="F200">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>199</v>
@@ -4144,24 +4918,36 @@
       <c r="D201" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E201" t="s">
+        <v>98</v>
+      </c>
+      <c r="F201">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E202" t="s">
+        <v>117</v>
+      </c>
+      <c r="F202">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>199</v>
@@ -4172,10 +4958,16 @@
       <c r="D203" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E203" t="s">
+        <v>133</v>
+      </c>
+      <c r="F203">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>199</v>
@@ -4186,24 +4978,48 @@
       <c r="D204" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E204" t="s">
+        <v>62</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="G204" t="s">
+        <v>71</v>
+      </c>
+      <c r="H204">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E205" t="s">
+        <v>107</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+      <c r="G205" t="s">
+        <v>32</v>
+      </c>
+      <c r="H205">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>199</v>
@@ -4214,214 +5030,357 @@
       <c r="D206" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E206" t="s">
+        <v>106</v>
+      </c>
+      <c r="F206">
+        <v>4</v>
+      </c>
+      <c r="G206" t="s">
+        <v>33</v>
+      </c>
+      <c r="H206">
+        <v>6</v>
+      </c>
+      <c r="I206" t="s">
+        <v>324</v>
+      </c>
+      <c r="J206">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E207" t="s">
+        <v>64</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207" t="s">
+        <v>43</v>
+      </c>
+      <c r="H207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D208" s="1"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E208" t="s">
+        <v>68</v>
+      </c>
+      <c r="F208">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E209" t="s">
+        <v>65</v>
+      </c>
+      <c r="F209">
+        <v>4</v>
+      </c>
+      <c r="G209" t="s">
+        <v>49</v>
+      </c>
+      <c r="H209">
+        <v>6</v>
+      </c>
+      <c r="I209" t="s">
+        <v>332</v>
+      </c>
+      <c r="J209">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E210" t="s">
+        <v>109</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+      <c r="G210" t="s">
+        <v>83</v>
+      </c>
+      <c r="H210">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A212" s="1" t="s">
-        <v>186</v>
+        <v>1</v>
+      </c>
+      <c r="D211" s="1"/>
+      <c r="K211" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E212" t="s">
+        <v>20</v>
+      </c>
+      <c r="F212">
+        <v>8</v>
+      </c>
+      <c r="G212" t="s">
+        <v>12</v>
+      </c>
+      <c r="H212">
+        <v>3</v>
+      </c>
+      <c r="I212" t="s">
+        <v>101</v>
+      </c>
+      <c r="J212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>187</v>
+        <v>350</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D213" s="1"/>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E214" t="s">
+        <v>115</v>
+      </c>
+      <c r="F214">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A216" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B216" s="4" t="s">
+      <c r="E215" t="s">
+        <v>118</v>
+      </c>
+      <c r="F215">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A216" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B216" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C216" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C216" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E217" t="s">
+        <v>347</v>
+      </c>
+      <c r="F217">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D218" s="1"/>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E218" t="s">
+        <v>74</v>
+      </c>
+      <c r="F218">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E219" t="s">
+        <v>121</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+      <c r="G219" t="s">
+        <v>39</v>
+      </c>
+      <c r="H219">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D220" s="1"/>
-    </row>
-    <row r="221" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E220" t="s">
+        <v>123</v>
+      </c>
+      <c r="F220">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E221" t="s">
+        <v>124</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
+      <c r="G221" t="s">
+        <v>17</v>
+      </c>
+      <c r="H221">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>199</v>
@@ -4429,25 +5388,31 @@
       <c r="C222" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D222" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D222" s="1"/>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D223" s="1"/>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E223" t="s">
+        <v>131</v>
+      </c>
+      <c r="F223">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>199</v>
@@ -4455,1436 +5420,2925 @@
       <c r="C224" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D224" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D224" s="1"/>
+    </row>
+    <row r="225" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E225" t="s">
+        <v>348</v>
+      </c>
+      <c r="F225">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E226" t="s">
+        <v>88</v>
+      </c>
+      <c r="F226">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D227" s="1"/>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E228" t="s">
+        <v>89</v>
+      </c>
+      <c r="F228">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A229" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B225" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A226" s="2" t="s">
+      <c r="B229" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E229" t="s">
+        <v>224</v>
+      </c>
+      <c r="F229">
+        <v>10</v>
+      </c>
+      <c r="G229" t="s">
+        <v>135</v>
+      </c>
+      <c r="H229">
+        <v>1</v>
+      </c>
+      <c r="I229" t="s">
+        <v>90</v>
+      </c>
+      <c r="J229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A230" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B226" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A227" s="2" t="s">
+      <c r="B230" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E230" t="s">
+        <v>135</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230" t="s">
+        <v>83</v>
+      </c>
+      <c r="H230">
+        <v>8</v>
+      </c>
+      <c r="I230" t="s">
+        <v>3</v>
+      </c>
+      <c r="J230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A231" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B227" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A228" s="1" t="s">
+      <c r="B231" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E231" t="s">
+        <v>87</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231" t="s">
+        <v>116</v>
+      </c>
+      <c r="H231">
+        <v>8</v>
+      </c>
+      <c r="I231" t="s">
+        <v>158</v>
+      </c>
+      <c r="J231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A232" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B228" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A229" s="2" t="s">
+      <c r="B232" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D232" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A233" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B229" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A230" s="2" t="s">
+      <c r="B233" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E233" t="s">
+        <v>293</v>
+      </c>
+      <c r="F233">
+        <v>9</v>
+      </c>
+      <c r="G233" t="s">
+        <v>71</v>
+      </c>
+      <c r="H233">
+        <v>8</v>
+      </c>
+      <c r="I233" t="s">
+        <v>144</v>
+      </c>
+      <c r="J233">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A234" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B230" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D230" s="1"/>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A231" s="2" t="s">
+      <c r="B234" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D234" s="1"/>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A235" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B231" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A232" s="2" t="s">
+      <c r="B235" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E235" t="s">
+        <v>167</v>
+      </c>
+      <c r="F235">
+        <v>2</v>
+      </c>
+      <c r="G235" t="s">
+        <v>164</v>
+      </c>
+      <c r="H235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A236" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B232" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A233" s="2" t="s">
+      <c r="B236" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E236" t="s">
+        <v>77</v>
+      </c>
+      <c r="F236">
+        <v>1</v>
+      </c>
+      <c r="G236" t="s">
+        <v>143</v>
+      </c>
+      <c r="H236">
+        <v>1</v>
+      </c>
+      <c r="I236" t="s">
+        <v>192</v>
+      </c>
+      <c r="J236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A237" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B233" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A234" s="2" t="s">
+      <c r="B237" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E237" t="s">
+        <v>139</v>
+      </c>
+      <c r="F237">
+        <v>2</v>
+      </c>
+      <c r="G237" t="s">
+        <v>180</v>
+      </c>
+      <c r="H237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A238" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B234" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A235" s="2" t="s">
+      <c r="B238" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E238" t="s">
+        <v>239</v>
+      </c>
+      <c r="F238">
+        <v>9</v>
+      </c>
+      <c r="G238" t="s">
+        <v>167</v>
+      </c>
+      <c r="H238">
+        <v>1</v>
+      </c>
+      <c r="I238" t="s">
+        <v>162</v>
+      </c>
+      <c r="J238">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A239" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B235" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A236" s="2" t="s">
+      <c r="B239" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E239" t="s">
+        <v>153</v>
+      </c>
+      <c r="F239">
+        <v>2</v>
+      </c>
+      <c r="G239" t="s">
+        <v>177</v>
+      </c>
+      <c r="H239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A240" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B236" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A237" s="2" t="s">
+      <c r="B240" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E240" t="s">
+        <v>215</v>
+      </c>
+      <c r="F240">
+        <v>9</v>
+      </c>
+      <c r="G240" t="s">
+        <v>171</v>
+      </c>
+      <c r="H240">
+        <v>1</v>
+      </c>
+      <c r="I240" t="s">
+        <v>65</v>
+      </c>
+      <c r="J240">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A241" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B237" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A238" s="2" t="s">
+      <c r="B241" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E241" t="s">
+        <v>237</v>
+      </c>
+      <c r="F241">
+        <v>9</v>
+      </c>
+      <c r="G241" t="s">
+        <v>126</v>
+      </c>
+      <c r="H241">
+        <v>1</v>
+      </c>
+      <c r="I241" t="s">
+        <v>192</v>
+      </c>
+      <c r="J241">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A242" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B238" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A239" s="2" t="s">
+      <c r="B242" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E242" t="s">
+        <v>127</v>
+      </c>
+      <c r="F242">
+        <v>10</v>
+      </c>
+      <c r="G242" t="s">
+        <v>145</v>
+      </c>
+      <c r="H242">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A243" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B239" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D239" s="1"/>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A240" s="2" t="s">
+      <c r="B243" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D243" s="1"/>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A244" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B240" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D240" s="1"/>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A241" s="2" t="s">
+      <c r="B244" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D244" s="1"/>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A245" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D245" s="1"/>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A246" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B241" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A242" s="2" t="s">
+      <c r="B246" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E246" t="s">
+        <v>146</v>
+      </c>
+      <c r="F246">
+        <v>2</v>
+      </c>
+      <c r="G246" t="s">
+        <v>120</v>
+      </c>
+      <c r="H246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A247" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B242" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D242" s="1"/>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A243" s="2" t="s">
+      <c r="B247" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D247" s="1"/>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A248" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B243" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A244" s="2" t="s">
+      <c r="B248" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E248" t="s">
+        <v>250</v>
+      </c>
+      <c r="F248">
+        <v>9</v>
+      </c>
+      <c r="G248" t="s">
+        <v>97</v>
+      </c>
+      <c r="H248">
+        <v>8</v>
+      </c>
+      <c r="I248" t="s">
+        <v>92</v>
+      </c>
+      <c r="J248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A249" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B244" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A245" s="2" t="s">
+      <c r="B249" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E249" t="s">
+        <v>173</v>
+      </c>
+      <c r="F249">
+        <v>2</v>
+      </c>
+      <c r="G249" t="s">
+        <v>165</v>
+      </c>
+      <c r="H249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A250" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B245" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A246" s="2" t="s">
+      <c r="B250" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E250" t="s">
+        <v>149</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="G250" t="s">
+        <v>83</v>
+      </c>
+      <c r="H250">
+        <v>8</v>
+      </c>
+      <c r="I250" t="s">
+        <v>18</v>
+      </c>
+      <c r="J250">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A251" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B246" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A247" s="2" t="s">
+      <c r="B251" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E251" t="s">
+        <v>150</v>
+      </c>
+      <c r="F251">
+        <v>2</v>
+      </c>
+      <c r="G251" t="s">
+        <v>120</v>
+      </c>
+      <c r="H251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A252" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B247" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A248" s="2" t="s">
+      <c r="B252" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E252" t="s">
+        <v>214</v>
+      </c>
+      <c r="F252">
+        <v>9</v>
+      </c>
+      <c r="G252" t="s">
+        <v>154</v>
+      </c>
+      <c r="H252">
+        <v>1</v>
+      </c>
+      <c r="I252" t="s">
+        <v>197</v>
+      </c>
+      <c r="J252">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A253" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B248" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A249" s="2" t="s">
+      <c r="B253" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E253" t="s">
         <v>224</v>
       </c>
-      <c r="B249" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D249" s="1"/>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A250" s="2" t="s">
+      <c r="F253">
+        <v>9</v>
+      </c>
+      <c r="G253" t="s">
+        <v>69</v>
+      </c>
+      <c r="H253">
+        <v>1</v>
+      </c>
+      <c r="I253" t="s">
+        <v>194</v>
+      </c>
+      <c r="J253">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A254" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D254" s="1"/>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A255" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B250" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A251" s="2" t="s">
+      <c r="B255" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E255" t="s">
+        <v>250</v>
+      </c>
+      <c r="F255">
+        <v>9</v>
+      </c>
+      <c r="G255" t="s">
+        <v>62</v>
+      </c>
+      <c r="H255">
+        <v>1</v>
+      </c>
+      <c r="I255" t="s">
+        <v>144</v>
+      </c>
+      <c r="J255">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A256" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B251" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A252" s="2" t="s">
+      <c r="B256" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E256" t="s">
+        <v>215</v>
+      </c>
+      <c r="F256">
+        <v>9</v>
+      </c>
+      <c r="G256" t="s">
+        <v>126</v>
+      </c>
+      <c r="H256">
+        <v>1</v>
+      </c>
+      <c r="I256" t="s">
+        <v>192</v>
+      </c>
+      <c r="J256">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A257" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B252" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A253" s="2" t="s">
+      <c r="B257" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E257" t="s">
+        <v>147</v>
+      </c>
+      <c r="F257">
+        <v>2</v>
+      </c>
+      <c r="G257" t="s">
+        <v>104</v>
+      </c>
+      <c r="H257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A258" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B253" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A254" s="2" t="s">
+      <c r="B258" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E258" t="s">
+        <v>156</v>
+      </c>
+      <c r="F258">
+        <v>2</v>
+      </c>
+      <c r="G258" t="s">
+        <v>189</v>
+      </c>
+      <c r="H258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A259" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B254" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A255" s="2" t="s">
+      <c r="B259" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E259" t="s">
+        <v>155</v>
+      </c>
+      <c r="F259">
+        <v>1</v>
+      </c>
+      <c r="G259" t="s">
+        <v>162</v>
+      </c>
+      <c r="H259">
+        <v>6</v>
+      </c>
+      <c r="I259" t="s">
+        <v>42</v>
+      </c>
+      <c r="J259">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A260" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B255" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D255" s="1"/>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A256" s="2" t="s">
+      <c r="B260" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D260" s="1"/>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A261" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B256" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D256" s="1"/>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A257" s="2" t="s">
+      <c r="B261" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D261" s="1"/>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A262" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B257" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A258" s="2" t="s">
+      <c r="B262" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E262" t="s">
+        <v>174</v>
+      </c>
+      <c r="F262">
+        <v>2</v>
+      </c>
+      <c r="G262" t="s">
+        <v>166</v>
+      </c>
+      <c r="H262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A263" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B258" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A259" s="2" t="s">
+      <c r="B263" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E263" t="s">
+        <v>349</v>
+      </c>
+      <c r="F263">
+        <v>9</v>
+      </c>
+      <c r="G263" t="s">
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <v>3</v>
+      </c>
+      <c r="I263" t="s">
+        <v>350</v>
+      </c>
+      <c r="J263">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A264" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B259" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A260" s="2" t="s">
+      <c r="B264" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E264" t="s">
+        <v>162</v>
+      </c>
+      <c r="F264">
+        <v>5</v>
+      </c>
+      <c r="G264" t="s">
+        <v>103</v>
+      </c>
+      <c r="H264">
+        <v>9</v>
+      </c>
+      <c r="I264" t="s">
+        <v>163</v>
+      </c>
+      <c r="J264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A265" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B260" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A261" s="2" t="s">
+      <c r="B265" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E265" t="s">
+        <v>196</v>
+      </c>
+      <c r="F265">
+        <v>2</v>
+      </c>
+      <c r="G265" t="s">
+        <v>120</v>
+      </c>
+      <c r="H265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A266" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B261" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A262" s="2" t="s">
+      <c r="B266" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E266" t="s">
+        <v>224</v>
+      </c>
+      <c r="F266">
+        <v>9</v>
+      </c>
+      <c r="G266" t="s">
+        <v>112</v>
+      </c>
+      <c r="H266">
+        <v>1</v>
+      </c>
+      <c r="I266" t="s">
+        <v>192</v>
+      </c>
+      <c r="J266">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A267" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B262" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D262" s="1"/>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A263" s="2" t="s">
+      <c r="B267" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D267" s="1"/>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A268" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B263" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A264" s="2" t="s">
+      <c r="B268" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E268" t="s">
+        <v>188</v>
+      </c>
+      <c r="F268">
+        <v>2</v>
+      </c>
+      <c r="G268" t="s">
+        <v>164</v>
+      </c>
+      <c r="H268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A269" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B264" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D264" s="1"/>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A265" s="2" t="s">
+      <c r="B269" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D269" s="1"/>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A270" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B265" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A266" s="2" t="s">
+      <c r="B270" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E270" t="s">
+        <v>168</v>
+      </c>
+      <c r="F270">
+        <v>2</v>
+      </c>
+      <c r="G270" t="s">
+        <v>120</v>
+      </c>
+      <c r="H270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A271" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B266" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D266" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A267" s="2" t="s">
+      <c r="B271" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E271" t="s">
+        <v>170</v>
+      </c>
+      <c r="F271">
+        <v>2</v>
+      </c>
+      <c r="G271" t="s">
+        <v>164</v>
+      </c>
+      <c r="H271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A272" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B267" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A268" s="2" t="s">
+      <c r="B272" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E272" t="s">
+        <v>171</v>
+      </c>
+      <c r="F272">
+        <v>2</v>
+      </c>
+      <c r="G272" t="s">
+        <v>104</v>
+      </c>
+      <c r="H272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A273" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B268" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A269" s="2" t="s">
+      <c r="B273" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E273" t="s">
+        <v>154</v>
+      </c>
+      <c r="F273">
+        <v>2</v>
+      </c>
+      <c r="G273" t="s">
+        <v>176</v>
+      </c>
+      <c r="H273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A274" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B269" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A270" s="2" t="s">
+      <c r="B274" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E274" t="s">
+        <v>152</v>
+      </c>
+      <c r="F274">
+        <v>2</v>
+      </c>
+      <c r="G274" t="s">
+        <v>176</v>
+      </c>
+      <c r="H274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A275" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B270" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A271" s="2" t="s">
+      <c r="B275" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E275" t="s">
+        <v>198</v>
+      </c>
+      <c r="F275">
+        <v>2</v>
+      </c>
+      <c r="G275" t="s">
+        <v>177</v>
+      </c>
+      <c r="H275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A276" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B271" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A272" s="2" t="s">
+      <c r="B276" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E276" t="s">
+        <v>148</v>
+      </c>
+      <c r="F276">
+        <v>2</v>
+      </c>
+      <c r="G276" t="s">
+        <v>164</v>
+      </c>
+      <c r="H276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A277" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B272" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A273" s="2" t="s">
+      <c r="B277" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E277" t="s">
+        <v>230</v>
+      </c>
+      <c r="F277">
+        <v>9</v>
+      </c>
+      <c r="G277" t="s">
+        <v>139</v>
+      </c>
+      <c r="H277">
+        <v>1</v>
+      </c>
+      <c r="I277" t="s">
+        <v>124</v>
+      </c>
+      <c r="J277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A278" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B273" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A274" s="2" t="s">
+      <c r="B278" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E278" t="s">
+        <v>172</v>
+      </c>
+      <c r="F278">
+        <v>2</v>
+      </c>
+      <c r="G278" t="s">
+        <v>166</v>
+      </c>
+      <c r="H278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A279" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B274" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A275" s="2" t="s">
+      <c r="B279" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E279" t="s">
+        <v>195</v>
+      </c>
+      <c r="F279">
+        <v>2</v>
+      </c>
+      <c r="G279" t="s">
+        <v>120</v>
+      </c>
+      <c r="H279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A280" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B275" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D275" s="1"/>
-    </row>
-    <row r="276" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A276" s="2" t="s">
+      <c r="B280" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D280" s="1"/>
+    </row>
+    <row r="281" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A281" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B276" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A277" s="2" t="s">
+      <c r="B281" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E281" t="s">
+        <v>166</v>
+      </c>
+      <c r="F281">
+        <v>1</v>
+      </c>
+      <c r="G281" t="s">
+        <v>133</v>
+      </c>
+      <c r="H281">
+        <v>5</v>
+      </c>
+      <c r="I281" t="s">
+        <v>338</v>
+      </c>
+      <c r="J281">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A282" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B277" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D277" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A278" s="2" t="s">
+      <c r="B282" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E282" t="s">
+        <v>165</v>
+      </c>
+      <c r="F282">
+        <v>9</v>
+      </c>
+      <c r="G282" t="s">
+        <v>41</v>
+      </c>
+      <c r="H282">
+        <v>9</v>
+      </c>
+      <c r="I282" t="s">
+        <v>120</v>
+      </c>
+      <c r="J282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A283" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B278" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D278" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A279" s="2" t="s">
+      <c r="B283" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E283" t="s">
+        <v>215</v>
+      </c>
+      <c r="F283">
+        <v>9</v>
+      </c>
+      <c r="G283" t="s">
+        <v>92</v>
+      </c>
+      <c r="H283">
+        <v>1</v>
+      </c>
+      <c r="I283" t="s">
+        <v>197</v>
+      </c>
+      <c r="J283">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A284" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B279" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A280" s="2" t="s">
+      <c r="B284" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E284" t="s">
+        <v>214</v>
+      </c>
+      <c r="F284">
+        <v>9</v>
+      </c>
+      <c r="G284" t="s">
+        <v>92</v>
+      </c>
+      <c r="H284">
+        <v>1</v>
+      </c>
+      <c r="I284" t="s">
+        <v>197</v>
+      </c>
+      <c r="J284">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A285" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B280" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D280" s="1"/>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A281" s="2" t="s">
+      <c r="B285" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D285" s="1"/>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A286" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B281" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D281" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A282" s="2" t="s">
+      <c r="B286" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E286" t="s">
+        <v>239</v>
+      </c>
+      <c r="F286">
+        <v>9</v>
+      </c>
+      <c r="G286" t="s">
+        <v>69</v>
+      </c>
+      <c r="H286">
+        <v>1</v>
+      </c>
+      <c r="I286" t="s">
+        <v>350</v>
+      </c>
+      <c r="J286">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A287" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D287" s="1"/>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A288" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B282" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A283" s="2" t="s">
+      <c r="B288" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E288" t="s">
+        <v>231</v>
+      </c>
+      <c r="F288">
+        <v>9</v>
+      </c>
+      <c r="G288" t="s">
+        <v>64</v>
+      </c>
+      <c r="H288">
+        <v>1</v>
+      </c>
+      <c r="I288" t="s">
+        <v>169</v>
+      </c>
+      <c r="J288">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A289" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B283" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D283" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A284" s="2" t="s">
+      <c r="B289" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E289" t="s">
+        <v>138</v>
+      </c>
+      <c r="F289">
+        <v>2</v>
+      </c>
+      <c r="G289" t="s">
+        <v>114</v>
+      </c>
+      <c r="H289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A290" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B284" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D284" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A285" s="2" t="s">
+      <c r="B290" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E290" t="s">
+        <v>177</v>
+      </c>
+      <c r="F290">
+        <v>1</v>
+      </c>
+      <c r="G290" t="s">
+        <v>106</v>
+      </c>
+      <c r="H290">
+        <v>5</v>
+      </c>
+      <c r="I290" t="s">
+        <v>324</v>
+      </c>
+      <c r="J290">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A291" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B285" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D285" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A286" s="2" t="s">
+      <c r="B291" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E291" t="s">
+        <v>176</v>
+      </c>
+      <c r="F291">
+        <v>1</v>
+      </c>
+      <c r="G291" t="s">
+        <v>197</v>
+      </c>
+      <c r="H291">
+        <v>7</v>
+      </c>
+      <c r="I291" t="s">
+        <v>339</v>
+      </c>
+      <c r="J291">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A292" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B286" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D286" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A287" s="2" t="s">
+      <c r="B292" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E292" t="s">
+        <v>191</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292" t="s">
+        <v>169</v>
+      </c>
+      <c r="H292">
+        <v>7</v>
+      </c>
+      <c r="I292" t="s">
+        <v>35</v>
+      </c>
+      <c r="J292">
+        <v>10</v>
+      </c>
+      <c r="K292" s="11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A293" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B287" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D287" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A288" s="2" t="s">
+      <c r="B293" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E293" t="s">
+        <v>217</v>
+      </c>
+      <c r="F293">
+        <v>9</v>
+      </c>
+      <c r="G293" t="s">
+        <v>151</v>
+      </c>
+      <c r="H293">
+        <v>1</v>
+      </c>
+      <c r="I293" t="s">
+        <v>72</v>
+      </c>
+      <c r="J293">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A294" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B288" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D288" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A289" s="2" t="s">
+      <c r="B294" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E294" t="s">
+        <v>114</v>
+      </c>
+      <c r="F294">
+        <v>2</v>
+      </c>
+      <c r="G294" t="s">
+        <v>144</v>
+      </c>
+      <c r="H294">
+        <v>2</v>
+      </c>
+      <c r="I294" t="s">
+        <v>344</v>
+      </c>
+      <c r="J294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A295" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B289" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D289" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A290" s="2" t="s">
+      <c r="B295" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E295" t="s">
+        <v>293</v>
+      </c>
+      <c r="F295">
+        <v>9</v>
+      </c>
+      <c r="G295" t="s">
+        <v>96</v>
+      </c>
+      <c r="H295">
+        <v>2</v>
+      </c>
+      <c r="I295" t="s">
+        <v>194</v>
+      </c>
+      <c r="J295">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A296" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B290" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D290" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A291" s="2" t="s">
+      <c r="B296" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E296" t="s">
+        <v>349</v>
+      </c>
+      <c r="F296">
+        <v>9</v>
+      </c>
+      <c r="G296" t="s">
+        <v>92</v>
+      </c>
+      <c r="H296">
+        <v>1</v>
+      </c>
+      <c r="I296" t="s">
+        <v>194</v>
+      </c>
+      <c r="J296">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A297" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B291" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D291" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A292" s="2" t="s">
+      <c r="B297" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E297" t="s">
+        <v>231</v>
+      </c>
+      <c r="F297">
+        <v>9</v>
+      </c>
+      <c r="G297" t="s">
+        <v>64</v>
+      </c>
+      <c r="H297">
+        <v>1</v>
+      </c>
+      <c r="I297" t="s">
+        <v>169</v>
+      </c>
+      <c r="J297">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A298" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B292" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D292" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A293" s="2" t="s">
+      <c r="B298" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E298" t="s">
+        <v>180</v>
+      </c>
+      <c r="F298">
+        <v>1</v>
+      </c>
+      <c r="G298" t="s">
+        <v>65</v>
+      </c>
+      <c r="H298">
+        <v>5</v>
+      </c>
+      <c r="I298" t="s">
+        <v>305</v>
+      </c>
+      <c r="J298">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A299" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B293" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D293" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A294" s="2" t="s">
+      <c r="B299" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E299" t="s">
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>1</v>
+      </c>
+      <c r="G299" t="s">
+        <v>350</v>
+      </c>
+      <c r="H299">
+        <v>4</v>
+      </c>
+      <c r="I299" t="s">
+        <v>142</v>
+      </c>
+      <c r="J299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A300" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B294" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D294" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A295" s="2" t="s">
+      <c r="B300" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E300" t="s">
+        <v>184</v>
+      </c>
+      <c r="F300">
+        <v>2</v>
+      </c>
+      <c r="G300" t="s">
+        <v>180</v>
+      </c>
+      <c r="H300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A301" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B295" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D295" s="1"/>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A296" s="2" t="s">
+      <c r="B301" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D301" s="1"/>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A302" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B296" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D296" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A297" s="2" t="s">
+      <c r="B302" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E302" t="s">
+        <v>110</v>
+      </c>
+      <c r="F302">
+        <v>1</v>
+      </c>
+      <c r="G302" t="s">
+        <v>142</v>
+      </c>
+      <c r="H302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A303" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B297" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D297" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A298" s="2" t="s">
+      <c r="B303" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E303" t="s">
+        <v>62</v>
+      </c>
+      <c r="F303">
+        <v>1</v>
+      </c>
+      <c r="G303" t="s">
+        <v>144</v>
+      </c>
+      <c r="H303">
+        <v>6</v>
+      </c>
+      <c r="I303" t="s">
+        <v>142</v>
+      </c>
+      <c r="J303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A304" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B298" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D298" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A299" s="2" t="s">
+      <c r="B304" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E304" t="s">
+        <v>111</v>
+      </c>
+      <c r="F304">
+        <v>1</v>
+      </c>
+      <c r="G304" t="s">
+        <v>181</v>
+      </c>
+      <c r="H304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A305" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B299" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C299" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D299" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A300" s="2" t="s">
+      <c r="B305" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E305" t="s">
+        <v>140</v>
+      </c>
+      <c r="F305">
+        <v>1</v>
+      </c>
+      <c r="G305" t="s">
+        <v>67</v>
+      </c>
+      <c r="H305">
+        <v>8</v>
+      </c>
+      <c r="I305" t="s">
+        <v>49</v>
+      </c>
+      <c r="J305">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A306" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B300" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D300" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A301" s="2" t="s">
+      <c r="B306" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E306" t="s">
+        <v>193</v>
+      </c>
+      <c r="F306">
+        <v>2</v>
+      </c>
+      <c r="G306" t="s">
+        <v>180</v>
+      </c>
+      <c r="H306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A307" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B301" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D301" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A302" s="2" t="s">
+      <c r="B307" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E307" t="s">
+        <v>185</v>
+      </c>
+      <c r="F307">
+        <v>2</v>
+      </c>
+      <c r="G307" t="s">
+        <v>166</v>
+      </c>
+      <c r="H307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A308" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B302" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D302" s="1"/>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A303" s="2" t="s">
+      <c r="B308" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D308" s="1"/>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A309" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B303" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D303" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A304" s="2" t="s">
+      <c r="B309" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E309" t="s">
+        <v>237</v>
+      </c>
+      <c r="F309">
+        <v>9</v>
+      </c>
+      <c r="G309" t="s">
+        <v>94</v>
+      </c>
+      <c r="H309">
+        <v>8</v>
+      </c>
+      <c r="I309" t="s">
+        <v>112</v>
+      </c>
+      <c r="J309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A310" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B304" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A305" s="2" t="s">
+      <c r="B310" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E310" t="s">
+        <v>239</v>
+      </c>
+      <c r="F310">
+        <v>9</v>
+      </c>
+      <c r="G310" t="s">
+        <v>155</v>
+      </c>
+      <c r="H310">
+        <v>1</v>
+      </c>
+      <c r="I310" t="s">
+        <v>162</v>
+      </c>
+      <c r="J310">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A311" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B305" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D305" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A306" s="2" t="s">
+      <c r="B311" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E311" t="s">
+        <v>277</v>
+      </c>
+      <c r="F311">
+        <v>9</v>
+      </c>
+      <c r="G311" t="s">
+        <v>69</v>
+      </c>
+      <c r="H311">
+        <v>1</v>
+      </c>
+      <c r="I311" t="s">
+        <v>197</v>
+      </c>
+      <c r="J311">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A312" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B306" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D306" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A307" s="2" t="s">
+      <c r="B312" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E312" t="s">
+        <v>277</v>
+      </c>
+      <c r="F312">
+        <v>9</v>
+      </c>
+      <c r="G312" t="s">
+        <v>126</v>
+      </c>
+      <c r="H312">
+        <v>1</v>
+      </c>
+      <c r="I312" t="s">
+        <v>197</v>
+      </c>
+      <c r="J312">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A313" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B307" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D307" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A308" s="2" t="s">
+      <c r="B313" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E313" t="s">
+        <v>277</v>
+      </c>
+      <c r="F313">
+        <v>9</v>
+      </c>
+      <c r="G313" t="s">
+        <v>161</v>
+      </c>
+      <c r="H313">
+        <v>1</v>
+      </c>
+      <c r="I313" t="s">
+        <v>197</v>
+      </c>
+      <c r="J313" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A314" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B308" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D308" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A309" s="2" t="s">
+      <c r="B314" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E314" t="s">
+        <v>164</v>
+      </c>
+      <c r="F314">
+        <v>1</v>
+      </c>
+      <c r="G314" t="s">
+        <v>194</v>
+      </c>
+      <c r="H314">
+        <v>7</v>
+      </c>
+      <c r="I314" t="s">
+        <v>337</v>
+      </c>
+      <c r="J314">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A315" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B309" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D309" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A310" s="2" t="s">
+      <c r="B315" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E315" t="s">
+        <v>136</v>
+      </c>
+      <c r="F315">
+        <v>2</v>
+      </c>
+      <c r="G315" t="s">
+        <v>137</v>
+      </c>
+      <c r="H315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A316" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B310" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D310" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A311" s="2" t="s">
+      <c r="B316" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E316" t="s">
+        <v>179</v>
+      </c>
+      <c r="F316">
+        <v>2</v>
+      </c>
+      <c r="G316" t="s">
+        <v>180</v>
+      </c>
+      <c r="H316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A317" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B311" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D311" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A312" s="2" t="s">
+      <c r="B317" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E317" t="s">
+        <v>293</v>
+      </c>
+      <c r="F317">
+        <v>9</v>
+      </c>
+      <c r="G317" t="s">
+        <v>155</v>
+      </c>
+      <c r="H317">
+        <v>1</v>
+      </c>
+      <c r="I317" t="s">
+        <v>194</v>
+      </c>
+      <c r="J317">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A318" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B312" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D312" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A313" s="2" t="s">
+      <c r="B318" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E318" t="s">
+        <v>190</v>
+      </c>
+      <c r="F318">
+        <v>2</v>
+      </c>
+      <c r="G318" t="s">
+        <v>104</v>
+      </c>
+      <c r="H318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A319" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B313" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D313" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A314" s="2" t="s">
+      <c r="B319" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E319" t="s">
+        <v>237</v>
+      </c>
+      <c r="F319">
+        <v>9</v>
+      </c>
+      <c r="G319" t="s">
+        <v>92</v>
+      </c>
+      <c r="H319">
+        <v>1</v>
+      </c>
+      <c r="I319" t="s">
+        <v>145</v>
+      </c>
+      <c r="J319">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A320" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B314" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D314" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A315" s="2" t="s">
+      <c r="B320" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E320" t="s">
+        <v>250</v>
+      </c>
+      <c r="F320">
+        <v>9</v>
+      </c>
+      <c r="G320" t="s">
+        <v>77</v>
+      </c>
+      <c r="H320">
+        <v>1</v>
+      </c>
+      <c r="I320" t="s">
+        <v>144</v>
+      </c>
+      <c r="J320">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A321" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B315" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D315" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A316" s="2" t="s">
+      <c r="B321" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E321" t="s">
+        <v>191</v>
+      </c>
+      <c r="F321">
+        <v>1</v>
+      </c>
+      <c r="G321" t="s">
+        <v>83</v>
+      </c>
+      <c r="H321">
+        <v>8</v>
+      </c>
+      <c r="I321" t="s">
+        <v>43</v>
+      </c>
+      <c r="J321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A322" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B316" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D316" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A317" s="2" t="s">
+      <c r="B322" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E322" t="s">
+        <v>160</v>
+      </c>
+      <c r="F322">
+        <v>2</v>
+      </c>
+      <c r="G322" t="s">
+        <v>114</v>
+      </c>
+      <c r="H322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A323" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B317" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D317" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A318" s="2" t="s">
+      <c r="B323" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E323" t="s">
+        <v>161</v>
+      </c>
+      <c r="F323">
+        <v>2</v>
+      </c>
+      <c r="G323" t="s">
+        <v>137</v>
+      </c>
+      <c r="H323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A324" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B318" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D318" s="1"/>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A319" s="2" t="s">
+      <c r="B324" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D324" s="1"/>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A325" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B319" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D319" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A320" s="2" t="s">
+      <c r="B325" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E325" t="s">
+        <v>151</v>
+      </c>
+      <c r="F325">
+        <v>2</v>
+      </c>
+      <c r="G325" t="s">
+        <v>164</v>
+      </c>
+      <c r="H325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A326" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B320" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D320" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A321" s="2" t="s">
+      <c r="B326" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E326" t="s">
+        <v>187</v>
+      </c>
+      <c r="F326">
+        <v>2</v>
+      </c>
+      <c r="G326" t="s">
+        <v>166</v>
+      </c>
+      <c r="H326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A327" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B321" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D321" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A322" s="2" t="s">
+      <c r="B327" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E327" t="s">
+        <v>230</v>
+      </c>
+      <c r="F327">
+        <v>9</v>
+      </c>
+      <c r="G327" t="s">
+        <v>112</v>
+      </c>
+      <c r="H327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A328" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B322" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D322" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A323" s="2" t="s">
+      <c r="B328" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E328" t="s">
+        <v>230</v>
+      </c>
+      <c r="F328">
+        <v>9</v>
+      </c>
+      <c r="G328" t="s">
+        <v>101</v>
+      </c>
+      <c r="H328">
+        <v>1</v>
+      </c>
+      <c r="I328" t="s">
+        <v>350</v>
+      </c>
+      <c r="J328">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A329" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B323" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D323" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A324" s="2" t="s">
+      <c r="B329" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E329" t="s">
+        <v>217</v>
+      </c>
+      <c r="F329">
+        <v>9</v>
+      </c>
+      <c r="G329" t="s">
+        <v>92</v>
+      </c>
+      <c r="H329">
+        <v>1</v>
+      </c>
+      <c r="I329" t="s">
+        <v>194</v>
+      </c>
+      <c r="J329">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A330" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B324" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D324" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A325" s="2" t="s">
+      <c r="B330" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E330" t="s">
+        <v>180</v>
+      </c>
+      <c r="F330">
+        <v>1</v>
+      </c>
+      <c r="G330" t="s">
+        <v>177</v>
+      </c>
+      <c r="H330">
+        <v>1</v>
+      </c>
+      <c r="I330" t="s">
+        <v>166</v>
+      </c>
+      <c r="J330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A331" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B325" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D325" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A326" s="2" t="s">
+      <c r="B331" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E331" t="s">
+        <v>231</v>
+      </c>
+      <c r="F331">
+        <v>9</v>
+      </c>
+      <c r="G331" t="s">
+        <v>130</v>
+      </c>
+      <c r="H331">
+        <v>9</v>
+      </c>
+      <c r="I331" t="s">
+        <v>169</v>
+      </c>
+      <c r="J331">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A332" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B326" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D326" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A327" s="2" t="s">
+      <c r="B332" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E332" t="s">
+        <v>214</v>
+      </c>
+      <c r="F332">
+        <v>9</v>
+      </c>
+      <c r="G332" t="s">
+        <v>126</v>
+      </c>
+      <c r="H332">
+        <v>1</v>
+      </c>
+      <c r="I332" t="s">
+        <v>192</v>
+      </c>
+      <c r="J332">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A333" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B327" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D327" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A328" s="2" t="s">
+      <c r="B333" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E333" t="s">
+        <v>352</v>
+      </c>
+      <c r="F333">
+        <v>9</v>
+      </c>
+      <c r="G333" t="s">
+        <v>155</v>
+      </c>
+      <c r="H333">
+        <v>1</v>
+      </c>
+      <c r="I333" t="s">
+        <v>197</v>
+      </c>
+      <c r="J333">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A334" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B328" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D328" s="1" t="s">
-        <v>2</v>
+      <c r="B334" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E334" t="s">
+        <v>217</v>
+      </c>
+      <c r="F334">
+        <v>9</v>
+      </c>
+      <c r="G334" t="s">
+        <v>112</v>
+      </c>
+      <c r="H334">
+        <v>1</v>
+      </c>
+      <c r="I334" t="s">
+        <v>192</v>
+      </c>
+      <c r="J334">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -5945,235 +8399,235 @@
     <hyperlink ref="A95" r:id="rId54" tooltip="Bad Moon Teef" display="https://tacticus.fandom.com/wiki/Bad_Moon_Teef" xr:uid="{B02D7DCD-B7AD-4EFC-A872-D4E079265AD3}"/>
     <hyperlink ref="A96" r:id="rId55" tooltip="Battle Plan" display="https://tacticus.fandom.com/wiki/Battle_Plan" xr:uid="{84874FBF-7D78-42F3-A5E1-17D4E209560D}"/>
     <hyperlink ref="A97" r:id="rId56" tooltip="Battle Scar" display="https://tacticus.fandom.com/wiki/Battle_Scar" xr:uid="{454EBA27-9342-484B-85DC-637B1C1AF991}"/>
-    <hyperlink ref="A98" r:id="rId57" tooltip="Bionic Eye" display="https://tacticus.fandom.com/wiki/Bionic_Eye" xr:uid="{36B9BE26-F183-46F4-8555-A5EB434F8D64}"/>
-    <hyperlink ref="A99" r:id="rId58" tooltip="Bladesman's Honour" display="https://tacticus.fandom.com/wiki/Bladesman%27s_Honour" xr:uid="{9E88372D-39FC-47DB-8ADB-3E2409E22011}"/>
-    <hyperlink ref="A100" r:id="rId59" tooltip="Blasphemous Armor Trim" display="https://tacticus.fandom.com/wiki/Blasphemous_Armor_Trim" xr:uid="{29EBA037-7A1B-4205-8FA9-36E94B709F88}"/>
-    <hyperlink ref="A101" r:id="rId60" tooltip="Blessed Corset Armor" display="https://tacticus.fandom.com/wiki/Blessed_Corset_Armor" xr:uid="{B813FBFC-1DC4-4327-9B5F-8CEB9B8ED220}"/>
-    <hyperlink ref="A102" r:id="rId61" tooltip="Blessed Purity Seal" display="https://tacticus.fandom.com/wiki/Blessed_Purity_Seal" xr:uid="{88FC3BF1-2C32-47F9-94A0-4ABFBF8632EB}"/>
-    <hyperlink ref="A103" r:id="rId62" tooltip="Blessed Tabbard" display="https://tacticus.fandom.com/wiki/Blessed_Tabbard" xr:uid="{EA2AD99F-A88B-4489-B68C-1D010186D879}"/>
-    <hyperlink ref="A104" r:id="rId63" tooltip="Box of Ammo" display="https://tacticus.fandom.com/wiki/Box_of_Ammo" xr:uid="{60F1760E-AFAF-4F9E-BE8D-D7FEBEDB0999}"/>
-    <hyperlink ref="A105" r:id="rId64" tooltip="Box of Rations" display="https://tacticus.fandom.com/wiki/Box_of_Rations" xr:uid="{92FEB241-35F7-45FD-94AA-4ED35C2790EC}"/>
-    <hyperlink ref="A106" r:id="rId65" tooltip="Ceramite Bar" display="https://tacticus.fandom.com/wiki/Ceramite_Bar" xr:uid="{CD726F9F-A804-42B2-A422-FBA0EDCE97E3}"/>
-    <hyperlink ref="A107" r:id="rId66" tooltip="Chain of Zeal" display="https://tacticus.fandom.com/wiki/Chain_of_Zeal" xr:uid="{390BAAA8-26C3-40A9-BF6D-05CB78EEF858}"/>
-    <hyperlink ref="A108" r:id="rId67" tooltip="Chapter Pendant" display="https://tacticus.fandom.com/wiki/Chapter_Pendant" xr:uid="{B646814D-09C7-4217-96E6-66F1A03A252C}"/>
-    <hyperlink ref="A109" r:id="rId68" tooltip="Classified Data-Slate" display="https://tacticus.fandom.com/wiki/Classified_Data-Slate" xr:uid="{6CEE73F8-72E4-4303-821D-97AAD9B4BCE0}"/>
-    <hyperlink ref="A110" r:id="rId69" tooltip="Crate of Salvage" display="https://tacticus.fandom.com/wiki/Crate_of_Salvage" xr:uid="{558E8227-9BE0-4DCC-A105-AB65CF34AD99}"/>
-    <hyperlink ref="A111" r:id="rId70" tooltip="Dark Hood" display="https://tacticus.fandom.com/wiki/Dark_Hood" xr:uid="{CB7E5D71-5B2B-406E-A204-624354FF4277}"/>
-    <hyperlink ref="A112" r:id="rId71" tooltip="Digital Weapons" display="https://tacticus.fandom.com/wiki/Digital_Weapons" xr:uid="{47225B54-7870-4C93-85B5-8E6B99665A1D}"/>
-    <hyperlink ref="A113" r:id="rId72" tooltip="Drone Controller" display="https://tacticus.fandom.com/wiki/Drone_Controller" xr:uid="{584871D8-BB82-489F-913B-A07A1C6616AB}"/>
-    <hyperlink ref="A114" r:id="rId73" tooltip="Electromantic Cable Bundle" display="https://tacticus.fandom.com/wiki/Electromantic_Cable_Bundle" xr:uid="{68BDB6C9-A375-4E4A-B922-46DE06C8764A}"/>
-    <hyperlink ref="A115" r:id="rId74" tooltip="Entrenching Tool" display="https://tacticus.fandom.com/wiki/Entrenching_Tool" xr:uid="{CE97734A-D46F-40DC-9742-53ABE39A211B}"/>
-    <hyperlink ref="A116" r:id="rId75" tooltip="Eye of Horus" display="https://tacticus.fandom.com/wiki/Eye_of_Horus" xr:uid="{8623F529-75AC-4138-934E-0E56DCCC5C34}"/>
-    <hyperlink ref="A117" r:id="rId76" tooltip="Fine Cloak" display="https://tacticus.fandom.com/wiki/Fine_Cloak" xr:uid="{788C0EC8-F494-4032-A223-11DF244F1EC5}"/>
-    <hyperlink ref="A118" r:id="rId77" tooltip="Flak Plates" display="https://tacticus.fandom.com/wiki/Flak_Plates" xr:uid="{53456BBE-7F10-4565-A67A-46131F9354C7}"/>
-    <hyperlink ref="A119" r:id="rId78" tooltip="Grand Skull Trophy" display="https://tacticus.fandom.com/wiki/Grand_Skull_Trophy" xr:uid="{B0707D8E-689A-439D-9D7D-082156D5F96F}"/>
-    <hyperlink ref="A120" r:id="rId79" tooltip="High-Capacity Power Pack" display="https://tacticus.fandom.com/wiki/High-Capacity_Power_Pack" xr:uid="{C54FE201-EE95-4B13-BC1D-41692FF77100}"/>
-    <hyperlink ref="A121" r:id="rId80" tooltip="Hymn of Martyrs" display="https://tacticus.fandom.com/wiki/Hymn_of_Martyrs" xr:uid="{931E8532-2F48-476D-941F-45C21288B17F}"/>
-    <hyperlink ref="A122" r:id="rId81" tooltip="Icon of Vengeance" display="https://tacticus.fandom.com/wiki/Icon_of_Vengeance" xr:uid="{ACA2001B-F62D-472A-BA90-71437AC82E31}"/>
-    <hyperlink ref="A123" r:id="rId82" tooltip="Impressive Armor Trim" display="https://tacticus.fandom.com/wiki/Impressive_Armor_Trim" xr:uid="{38386BDF-3526-4BE4-A228-AE333D9880B7}"/>
-    <hyperlink ref="A124" r:id="rId83" tooltip="Iron Jaw" display="https://tacticus.fandom.com/wiki/Iron_Jaw" xr:uid="{76040F93-7042-4BC5-8423-C72C7AD4AF3E}"/>
-    <hyperlink ref="A125" r:id="rId84" tooltip="Key of Ignorance" display="https://tacticus.fandom.com/wiki/Key_of_Ignorance" xr:uid="{9929A163-11EE-4AAD-8987-7DD468A1DCF8}"/>
-    <hyperlink ref="A126" r:id="rId85" tooltip="Kill Count" display="https://tacticus.fandom.com/wiki/Kill_Count" xr:uid="{9C5B6B9B-46AE-4DBE-841B-AE27911CCBEA}"/>
-    <hyperlink ref="A127" r:id="rId86" tooltip="Krak Grenade" display="https://tacticus.fandom.com/wiki/Krak_Grenade" xr:uid="{593675AD-AEF3-46D6-86AB-AD347F8D6C83}"/>
-    <hyperlink ref="A128" r:id="rId87" tooltip="Medical Supply Crate" display="https://tacticus.fandom.com/wiki/Medical_Supply_Crate" xr:uid="{5EB17191-3E64-4D4F-AF0A-63404C8AA275}"/>
-    <hyperlink ref="A129" r:id="rId88" tooltip="Mesh Weave Garment" display="https://tacticus.fandom.com/wiki/Mesh_Weave_Garment" xr:uid="{5C4BCB36-B182-4A8B-B012-DBE27ED335D3}"/>
-    <hyperlink ref="A130" r:id="rId89" tooltip="Metal Decorative Skull" display="https://tacticus.fandom.com/wiki/Metal_Decorative_Skull" xr:uid="{43048C27-DFD6-4AD0-BC42-42EBDCBE3815}"/>
-    <hyperlink ref="A131" r:id="rId90" tooltip="Murderous Spikes" display="https://tacticus.fandom.com/wiki/Murderous_Spikes" xr:uid="{73AFC3C7-7997-4280-BA11-4D74007A87D8}"/>
-    <hyperlink ref="A132" r:id="rId91" tooltip="Mutation: Daemonic Horns" display="https://tacticus.fandom.com/wiki/Mutation:_Daemonic_Horns" xr:uid="{B1BBF6C4-D87B-428B-B5AD-E7BFF8C94399}"/>
-    <hyperlink ref="A133" r:id="rId92" tooltip="Mutation: Warped Heart" display="https://tacticus.fandom.com/wiki/Mutation:_Warped_Heart" xr:uid="{8D7033CD-7CE6-4DB4-BE16-71E5968221F9}"/>
-    <hyperlink ref="A134" r:id="rId93" tooltip="Mutation: Warped Skin" display="https://tacticus.fandom.com/wiki/Mutation:_Warped_Skin" xr:uid="{769018FC-D3CD-442B-986F-E500DC49E8E1}"/>
-    <hyperlink ref="A135" r:id="rId94" tooltip="Plague Bell" display="https://tacticus.fandom.com/wiki/Plague_Bell" xr:uid="{F9B0A485-55B0-4B96-A296-C8D0DA14B485}"/>
-    <hyperlink ref="A136" r:id="rId95" tooltip="Plasma Cell Bundle" display="https://tacticus.fandom.com/wiki/Plasma_Cell_Bundle" xr:uid="{6D8B8F33-2C39-4C4A-8646-A312FF7C282E}"/>
-    <hyperlink ref="A137" r:id="rId96" tooltip="Powerful Auxiliary Core" display="https://tacticus.fandom.com/wiki/Powerful_Auxiliary_Core" xr:uid="{4F0EF19B-2829-4136-9E8E-1C18EEB83127}"/>
-    <hyperlink ref="A138" r:id="rId97" tooltip="Powerful Micro-Generator" display="https://tacticus.fandom.com/wiki/Powerful_Micro-Generator" xr:uid="{7ADEBE62-27EB-4A93-94ED-94B422AA871D}"/>
-    <hyperlink ref="A139" r:id="rId98" tooltip="Prey-Sight" display="https://tacticus.fandom.com/wiki/Prey-Sight" xr:uid="{ABED740F-1FCF-4D9D-88B1-DEFFD9E41F48}"/>
-    <hyperlink ref="A140" r:id="rId99" tooltip="Psytronome" display="https://tacticus.fandom.com/wiki/Psytronome" xr:uid="{598D254A-3F44-417B-AB26-DF96E43CAA4D}"/>
-    <hyperlink ref="A141" r:id="rId100" tooltip="Ratiocination Targeting" display="https://tacticus.fandom.com/wiki/Ratiocination_Targeting" xr:uid="{0EBF5B93-DD3A-47F3-B6C0-0151CE9B82C9}"/>
-    <hyperlink ref="A142" r:id="rId101" tooltip="Reconstitution Protocols" display="https://tacticus.fandom.com/wiki/Reconstitution_Protocols" xr:uid="{950E7497-D567-40FE-B25B-F831BE9D1A5A}"/>
-    <hyperlink ref="A143" r:id="rId102" tooltip="Repair-Kit" display="https://tacticus.fandom.com/wiki/Repair-Kit" xr:uid="{FA5D1759-DF9B-4ADD-958A-B4E912D34F43}"/>
-    <hyperlink ref="A144" r:id="rId103" tooltip="Righteous Candle" display="https://tacticus.fandom.com/wiki/Righteous_Candle" xr:uid="{2003DAA5-144D-4745-B7B4-6912896AE862}"/>
-    <hyperlink ref="A145" r:id="rId104" tooltip="Rose of Martyrs" display="https://tacticus.fandom.com/wiki/Rose_of_Martyrs" xr:uid="{79367AD7-8552-45FA-89AD-BD270B81493D}"/>
-    <hyperlink ref="A146" r:id="rId105" tooltip="Sanctified Reliquary of Protection" display="https://tacticus.fandom.com/wiki/Sanctified_Reliquary_of_Protection" xr:uid="{A2249487-0904-4C82-989C-CE3956B476F7}"/>
-    <hyperlink ref="A147" r:id="rId106" tooltip="Sanctified Weapon Oils" display="https://tacticus.fandom.com/wiki/Sanctified_Weapon_Oils" xr:uid="{50EE812B-8D26-45BD-A78B-DC473A19F5FC}"/>
-    <hyperlink ref="A148" r:id="rId107" tooltip="Scale-Plate Strand" display="https://tacticus.fandom.com/wiki/Scale-Plate_Strand" xr:uid="{02634FD6-C17E-49A4-B650-73C1BCB1F366}"/>
-    <hyperlink ref="A149" r:id="rId108" tooltip="Sensor Suite" display="https://tacticus.fandom.com/wiki/Sensor_Suite" xr:uid="{364ED316-04E2-43C5-A944-79C6F7CA88A6}"/>
-    <hyperlink ref="A150" r:id="rId109" tooltip="Sigil of Decay" display="https://tacticus.fandom.com/wiki/Sigil_of_Decay" xr:uid="{306368CC-CA3D-4653-9D53-83DA818E88A5}"/>
-    <hyperlink ref="A151" r:id="rId110" tooltip="Sophisticated Material Bar" display="https://tacticus.fandom.com/wiki/Sophisticated_Material_Bar" xr:uid="{5531CBF1-0DE3-4181-A218-997301579E60}"/>
-    <hyperlink ref="A152" r:id="rId111" tooltip="Stimm Injector" display="https://tacticus.fandom.com/wiki/Stimm_Injector" xr:uid="{C9D32BDF-F19D-4E5D-A991-BCCE88B5FE01}"/>
-    <hyperlink ref="A153" r:id="rId112" tooltip="Supernatural Sight" display="https://tacticus.fandom.com/wiki/Supernatural_Sight" xr:uid="{2BB38841-345A-4DD0-BDC7-8AE658A0A5BF}"/>
-    <hyperlink ref="A154" r:id="rId113" tooltip="Tank of Promethium" display="https://tacticus.fandom.com/wiki/Tank_of_Promethium" xr:uid="{6C5EBFDB-DFD2-4075-9DF4-E10D67DED678}"/>
-    <hyperlink ref="A155" r:id="rId114" tooltip="The Phoenix Ascendant" display="https://tacticus.fandom.com/wiki/The_Phoenix_Ascendant" xr:uid="{23D7916C-F88D-4614-BBD7-D4E811C823D7}"/>
-    <hyperlink ref="A156" r:id="rId115" tooltip="Unnatural Vapour Dispenser" display="https://tacticus.fandom.com/wiki/Unnatural_Vapour_Dispenser" xr:uid="{773C9C43-4EA2-4891-B6AF-11C679980642}"/>
-    <hyperlink ref="A157" r:id="rId116" tooltip="Viridian Energy Tesseract" display="https://tacticus.fandom.com/wiki/Viridian_Energy_Tesseract" xr:uid="{3BC64D15-9087-4B0E-959B-30300B40241B}"/>
-    <hyperlink ref="A158" r:id="rId117" tooltip="Waystone" display="https://tacticus.fandom.com/wiki/Waystone" xr:uid="{263E8862-5E81-4849-AFA7-CD2F15EC0AE4}"/>
-    <hyperlink ref="A159" r:id="rId118" tooltip="Wraithbone Plate" display="https://tacticus.fandom.com/wiki/Wraithbone_Plate" xr:uid="{A79B926B-D686-42AD-ADB2-AB91BE1EEBC5}"/>
-    <hyperlink ref="A160" r:id="rId119" tooltip="Zeidos Ribbon" display="https://tacticus.fandom.com/wiki/Zeidos_Ribbon" xr:uid="{0FCC52A9-E0C3-4DB3-B522-E1E00CCD25EC}"/>
-    <hyperlink ref="A161" r:id="rId120" tooltip="Adamantium Sheet" display="https://tacticus.fandom.com/wiki/Adamantium_Sheet" xr:uid="{E09E37AF-2239-48DC-8767-8813258A57E4}"/>
-    <hyperlink ref="A162" r:id="rId121" tooltip="Advanced Drone Controller" display="https://tacticus.fandom.com/wiki/Advanced_Drone_Controller" xr:uid="{A86B5C99-FC75-4C27-AC80-4EB07DC9D703}"/>
-    <hyperlink ref="A163" r:id="rId122" tooltip="Advanced Mesh Weave Garment" display="https://tacticus.fandom.com/wiki/Advanced_Mesh_Weave_Garment" xr:uid="{AF67C62F-F286-4511-B24E-E55A07C62658}"/>
-    <hyperlink ref="A164" r:id="rId123" tooltip="Advanced Sensor Suite" display="https://tacticus.fandom.com/wiki/Advanced_Sensor_Suite" xr:uid="{8CA82054-6815-4F40-9BBC-BE06E55ACF20}"/>
-    <hyperlink ref="A165" r:id="rId124" tooltip="Advanced Stimm Injector" display="https://tacticus.fandom.com/wiki/Advanced_Stimm_Injector" xr:uid="{0FE53723-F777-472F-8CBC-E16489C0892A}"/>
-    <hyperlink ref="A166" r:id="rId125" tooltip="Ancient Tasset Plate" display="https://tacticus.fandom.com/wiki/Ancient_Tasset_Plate" xr:uid="{F97EAB59-E262-4C2C-A527-027B9D0EBE67}"/>
-    <hyperlink ref="A167" r:id="rId126" tooltip="Anointed Auxiliary Core" display="https://tacticus.fandom.com/wiki/Anointed_Auxiliary_Core" xr:uid="{A6E16822-A015-45AD-B73F-14354643E3AF}"/>
-    <hyperlink ref="A168" r:id="rId127" tooltip="Anointed Micro-Generator" display="https://tacticus.fandom.com/wiki/Anointed_Micro-Generator" xr:uid="{0CC0B279-74E2-4319-A1D6-EB5233B93CE2}"/>
-    <hyperlink ref="A169" r:id="rId128" tooltip="Belt of Krak Grenades" display="https://tacticus.fandom.com/wiki/Belt_of_Krak_Grenades" xr:uid="{B3F0ADD7-A983-49D7-9167-73DDC0142A6D}"/>
-    <hyperlink ref="A170" r:id="rId129" tooltip="Bionic Neural Pathways" display="https://tacticus.fandom.com/wiki/Bionic_Neural_Pathways" xr:uid="{D4B3FF65-10E7-4A2D-8BEB-52AF1915B2DE}"/>
-    <hyperlink ref="A171" r:id="rId130" tooltip="Blessed Promethium Canister" display="https://tacticus.fandom.com/wiki/Blessed_Promethium_Canister" xr:uid="{7F8E866A-44FB-44E8-936B-277DB160D41E}"/>
-    <hyperlink ref="A172" r:id="rId131" tooltip="Bolts of Judgement" display="https://tacticus.fandom.com/wiki/Bolts_of_Judgement" xr:uid="{2591BD93-396B-4451-B4DF-6556C79F6AFD}"/>
-    <hyperlink ref="A173" r:id="rId132" tooltip="Brutal Iron Jaw" display="https://tacticus.fandom.com/wiki/Brutal_Iron_Jaw" xr:uid="{A47005D3-0018-483F-B8E5-64773EE10B1C}"/>
-    <hyperlink ref="A174" r:id="rId133" tooltip="Calibanite Hood" display="https://tacticus.fandom.com/wiki/Calibanite_Hood" xr:uid="{23DC57FF-D374-43C0-AEFF-104712476003}"/>
-    <hyperlink ref="A175" r:id="rId134" tooltip="Ceramite Sheet" display="https://tacticus.fandom.com/wiki/Ceramite_Sheet" xr:uid="{B18F463F-F8C3-4BC4-907C-E750DB6D4048}"/>
-    <hyperlink ref="A176" r:id="rId135" tooltip="Chain of Righteous Zeal" display="https://tacticus.fandom.com/wiki/Chain_of_Righteous_Zeal" xr:uid="{E590CD98-646C-4B6D-BF6B-7CDE47CF2084}"/>
-    <hyperlink ref="A177" r:id="rId136" tooltip="Crusader's Tabbard" display="https://tacticus.fandom.com/wiki/Crusader%27s_Tabbard" xr:uid="{3C1D7863-3BFF-43F3-998E-0F40B192ABBE}"/>
-    <hyperlink ref="A178" r:id="rId137" tooltip="Daemonic Armor Trim" display="https://tacticus.fandom.com/wiki/Daemonic_Armor_Trim" xr:uid="{0B94E233-6D40-417C-BDAA-0B99C488AB63}"/>
-    <hyperlink ref="A179" r:id="rId138" tooltip="Death Bell" display="https://tacticus.fandom.com/wiki/Death_Bell" xr:uid="{4F0C9245-A9B6-43D8-A731-624725D7F944}"/>
-    <hyperlink ref="A180" r:id="rId139" tooltip="Death Shroud" display="https://tacticus.fandom.com/wiki/Death_Shroud" xr:uid="{A5E1BCA3-F332-4BF3-9B10-F649AA484730}"/>
-    <hyperlink ref="A181" r:id="rId140" tooltip="Decorated Cloak" display="https://tacticus.fandom.com/wiki/Decorated_Cloak" xr:uid="{3964E141-8DFA-4FF0-8008-8AB2D06439D3}"/>
-    <hyperlink ref="A182" r:id="rId141" tooltip="Ded 'Ard Plate" display="https://tacticus.fandom.com/wiki/Ded_%27Ard_Plate" xr:uid="{CE6697C8-1D7D-41A4-A7D0-816B6121BA02}"/>
-    <hyperlink ref="A183" r:id="rId142" tooltip="Epaulettes" display="https://tacticus.fandom.com/wiki/Epaulettes" xr:uid="{2278EADB-BB80-43E1-AA13-F1620F3CB5DC}"/>
-    <hyperlink ref="A184" r:id="rId143" tooltip="Exospine" display="https://tacticus.fandom.com/wiki/Exospine" xr:uid="{AFA5F1E4-7F9F-41CC-90E8-80CD66806AFF}"/>
-    <hyperlink ref="A185" r:id="rId144" tooltip="Exquisite Medical Supplies" display="https://tacticus.fandom.com/wiki/Exquisite_Medical_Supplies" xr:uid="{FEB348E3-B7A2-4CD4-B072-80C3BD911CFC}"/>
-    <hyperlink ref="A186" r:id="rId145" tooltip="Filligrane Psytronome" display="https://tacticus.fandom.com/wiki/Filligrane_Psytronome" xr:uid="{E5F66479-63FE-4237-B9DB-CAEEF69C3658}"/>
-    <hyperlink ref="A187" r:id="rId146" tooltip="Filligrane Wraithbone Plate" display="https://tacticus.fandom.com/wiki/Filligrane_Wraithbone_Plate" xr:uid="{7DF92E75-AD6B-4253-A821-A6F66A7EA513}"/>
-    <hyperlink ref="A188" r:id="rId147" tooltip="Golden Ornamental Skull" display="https://tacticus.fandom.com/wiki/Golden_Ornamental_Skull" xr:uid="{F01B1440-C5DE-443D-9AC3-4EBC1041598A}"/>
-    <hyperlink ref="A189" r:id="rId148" tooltip="Grand Helmet Trophy" display="https://tacticus.fandom.com/wiki/Grand_Helmet_Trophy" xr:uid="{36EC0FAF-161B-4791-A242-DCCBA1F1A407}"/>
-    <hyperlink ref="A190" r:id="rId149" tooltip="Grand Purity Seal" display="https://tacticus.fandom.com/wiki/Grand_Purity_Seal" xr:uid="{9C491C4D-E711-44E1-9EAF-30C1AB4968D2}"/>
-    <hyperlink ref="A191" r:id="rId150" tooltip="Greater Reliquary of Vengeance" display="https://tacticus.fandom.com/wiki/Greater_Reliquary_of_Vengeance" xr:uid="{00F79BF2-8942-4282-BA68-F4217E04E1B0}"/>
-    <hyperlink ref="A192" r:id="rId151" tooltip="Greater Reliquary of Protection" display="https://tacticus.fandom.com/wiki/Greater_Reliquary_of_Protection" xr:uid="{F8AB2AC1-32EF-44B2-817F-F7D5FAD2C54F}"/>
-    <hyperlink ref="A193" r:id="rId152" tooltip="High-Grade Flak Plates" display="https://tacticus.fandom.com/wiki/High-Grade_Flak_Plates" xr:uid="{65A57AEB-A2A9-444A-BD46-720065044B4F}"/>
-    <hyperlink ref="A194" r:id="rId153" tooltip="Hymn of Sacrifice" display="https://tacticus.fandom.com/wiki/Hymn_of_Sacrifice" xr:uid="{842957C0-2845-4DFE-A0B0-BED58C0CC363}"/>
-    <hyperlink ref="A195" r:id="rId154" tooltip="Hypermaterial Shifter" display="https://tacticus.fandom.com/wiki/Hypermaterial_Shifter" xr:uid="{23070956-4EA1-4C01-B1FB-B616BF586AC6}"/>
-    <hyperlink ref="A196" r:id="rId155" tooltip="Ice Troll Hide" display="https://tacticus.fandom.com/wiki/Ice_Troll_Hide" xr:uid="{E55E9407-A075-44F9-9118-22E9ECC529FC}"/>
-    <hyperlink ref="A197" r:id="rId156" tooltip="Icon of Daemonic Vengeance" display="https://tacticus.fandom.com/wiki/Icon_of_Daemonic_Vengeance" xr:uid="{8308262A-6C72-4ED8-85E6-1829CB5DA144}"/>
-    <hyperlink ref="A198" r:id="rId157" tooltip="Key of Knowledge" display="https://tacticus.fandom.com/wiki/Key_of_Knowledge" xr:uid="{1E74654D-2BED-48A6-BB53-241C318FA059}"/>
-    <hyperlink ref="A199" r:id="rId158" tooltip="Lights of Purgation" display="https://tacticus.fandom.com/wiki/Lights_of_Purgation" xr:uid="{32473DF0-0678-4E4B-A739-C53040FFA6EC}"/>
-    <hyperlink ref="A200" r:id="rId159" tooltip="Macharian Cross" display="https://tacticus.fandom.com/wiki/Macharian_Cross" xr:uid="{93226CC9-A0DA-4E2A-A8B5-AAFFF954FD31}"/>
-    <hyperlink ref="A201" r:id="rId160" tooltip="Mars-Pattern Bionics" display="https://tacticus.fandom.com/wiki/Mars-Pattern_Bionics" xr:uid="{2BE8EA98-E5F9-495C-BA69-3A85751A5762}"/>
-    <hyperlink ref="A202" r:id="rId161" tooltip="Mutation: Metallic Skin" display="https://tacticus.fandom.com/wiki/Mutation:_Metallic_Skin" xr:uid="{26658AEB-006E-4239-9D9F-EF5A298337B9}"/>
-    <hyperlink ref="A203" r:id="rId162" tooltip="Mutation: Regenerative Blood" display="https://tacticus.fandom.com/wiki/Mutation:_Regenerative_Blood" xr:uid="{04DCA23D-D815-4856-826F-1D3548B85883}"/>
-    <hyperlink ref="A204" r:id="rId163" tooltip="Necrodermis Nano Scarab Swarm" display="https://tacticus.fandom.com/wiki/Necrodermis_Nano_Scarab_Swarm" xr:uid="{F1B9B1FB-A782-4605-B2A8-63262F79907B}"/>
-    <hyperlink ref="A205" r:id="rId164" tooltip="Nob Teef" display="https://tacticus.fandom.com/wiki/Nob_Teef" xr:uid="{623BBD30-78BF-4D06-BF47-6578AA18BF09}"/>
-    <hyperlink ref="A206" r:id="rId165" tooltip="Ominous Xenos Glyphs" display="https://tacticus.fandom.com/wiki/Ominous_Xenos_Glyphs" xr:uid="{00593533-3B0F-42BB-A287-9AFE17EFDE98}"/>
-    <hyperlink ref="A207" r:id="rId166" tooltip="Plasma Cell Crate" display="https://tacticus.fandom.com/wiki/Plasma_Cell_Crate" xr:uid="{B1AB155D-5E76-42C2-B0E8-81D6BDE32F03}"/>
-    <hyperlink ref="A208" r:id="rId167" tooltip="Power Weapon Field Node" display="https://tacticus.fandom.com/wiki/Power_Weapon_Field_Node" xr:uid="{24EC8422-855E-4D9F-AD09-0AB288EF34A1}"/>
-    <hyperlink ref="A209" r:id="rId168" tooltip="Refined Combat Stimms" display="https://tacticus.fandom.com/wiki/Refined_Combat_Stimms" xr:uid="{3ECBCCA4-E7AD-4919-BCC1-E7347E360AED}"/>
-    <hyperlink ref="A210" r:id="rId169" tooltip="Resurrection Protocols" display="https://tacticus.fandom.com/wiki/Resurrection_Protocols" xr:uid="{70241AB2-C07C-40F0-B198-38B108410522}"/>
-    <hyperlink ref="A211" r:id="rId170" tooltip="Roses of Sacrifice" display="https://tacticus.fandom.com/wiki/Roses_of_Sacrifice" xr:uid="{1F4B6AD6-8568-424A-A69E-18D665427C23}"/>
-    <hyperlink ref="A213" r:id="rId171" tooltip="Runic Talisman" display="https://tacticus.fandom.com/wiki/Runic_Talisman" xr:uid="{9079C830-8FEF-4F51-A972-96722FF9BAB8}"/>
-    <hyperlink ref="A214" r:id="rId172" tooltip="Sanctified Corset Armor" display="https://tacticus.fandom.com/wiki/Sanctified_Corset_Armor" xr:uid="{D18672C7-17AF-4F3F-A3AA-733464F13973}"/>
-    <hyperlink ref="A215" r:id="rId173" tooltip="Scale-Plate Mantle" display="https://tacticus.fandom.com/wiki/Scale-Plate_Mantle" xr:uid="{E8016B24-28E0-4E2F-9D08-01C698DF016A}"/>
-    <hyperlink ref="A216" r:id="rId174" tooltip="Sigil of Inevitable Decay" display="https://tacticus.fandom.com/wiki/Sigil_of_Inevitable_Decay" xr:uid="{E39BA007-3758-49E2-88AD-D2ABC6F27546}"/>
-    <hyperlink ref="A217" r:id="rId175" tooltip="Sophisticated Material Sheet" display="https://tacticus.fandom.com/wiki/Sophisticated_Material_Sheet" xr:uid="{139FC750-3379-46EB-90F9-406D3187C3C4}"/>
-    <hyperlink ref="A218" r:id="rId176" tooltip="Special Issue Ammo" display="https://tacticus.fandom.com/wiki/Special_Issue_Ammo" xr:uid="{9BE76D7D-529E-4E7D-A192-5DD49698D32A}"/>
-    <hyperlink ref="A219" r:id="rId177" tooltip="Spirit Stone" display="https://tacticus.fandom.com/wiki/Spirit_Stone" xr:uid="{1EC7D455-A91A-4198-9FBC-DF7CA3237AA3}"/>
-    <hyperlink ref="A220" r:id="rId178" tooltip="Terminator Honours" display="https://tacticus.fandom.com/wiki/Terminator_Honours" xr:uid="{D3D618A9-D754-429D-A975-6CF8CD3D573B}"/>
-    <hyperlink ref="A221" r:id="rId179" tooltip="Thunderwolf Tooth Necklace" display="https://tacticus.fandom.com/wiki/Thunderwolf_Tooth_Necklace" xr:uid="{C947E7DF-A273-41CB-8DA2-B570C08DC4BE}"/>
-    <hyperlink ref="A222" r:id="rId180" tooltip="Veteran's Entrenching Tool" display="https://tacticus.fandom.com/wiki/Veteran%27s_Entrenching_Tool" xr:uid="{8B19770D-910E-4169-809A-38F6DF4B49A2}"/>
-    <hyperlink ref="A223" r:id="rId181" tooltip="Warp Locus" display="https://tacticus.fandom.com/wiki/Warp_Locus" xr:uid="{06FD4A02-4B14-44AE-AFFE-3F5BB703023E}"/>
-    <hyperlink ref="A224" r:id="rId182" tooltip="Warp Touched Eye of Horus" display="https://tacticus.fandom.com/wiki/Warp_Touched_Eye_of_Horus" xr:uid="{ADFB36FA-32A5-4944-BDD7-1A0D19BCDFB9}"/>
-    <hyperlink ref="A225" r:id="rId183" tooltip="Adamantine Mantle" display="https://tacticus.fandom.com/wiki/Adamantine_Mantle" xr:uid="{EA1C4819-1B55-432F-B489-06D3DEFE6AE0}"/>
-    <hyperlink ref="A226" r:id="rId184" tooltip="Adamantium Plates" display="https://tacticus.fandom.com/wiki/Adamantium_Plates" xr:uid="{CE270A39-9B9D-4D34-AC82-ED3D351B79E9}"/>
-    <hyperlink ref="A227" r:id="rId185" tooltip="Advanced Exospine" display="https://tacticus.fandom.com/wiki/Advanced_Exospine" xr:uid="{CDF9BAC4-ECAA-44C0-9737-A925A83C8CF7}"/>
-    <hyperlink ref="A229" r:id="rId186" tooltip="Arbiter's Gaze" display="https://tacticus.fandom.com/wiki/Arbiter%27s_Gaze" xr:uid="{71F75C31-080D-4482-B42F-B53DDC46B70F}"/>
-    <hyperlink ref="A230" r:id="rId187" tooltip="Archeotech Bionics" display="https://tacticus.fandom.com/wiki/Archeotech_Bionics" xr:uid="{006AA51A-F1BA-4F86-A1D6-037FEBFB2EAC}"/>
-    <hyperlink ref="A231" r:id="rId188" tooltip="Artificer Flak Plates" display="https://tacticus.fandom.com/wiki/Artificer_Flak_Plates" xr:uid="{B5FC0805-A997-4DF4-A50B-B2C6A00FD558}"/>
-    <hyperlink ref="A232" r:id="rId189" tooltip="Autoloader" display="https://tacticus.fandom.com/wiki/Autoloader" xr:uid="{C6E44E21-AD73-452A-BDF1-B169F0490610}"/>
-    <hyperlink ref="A233" r:id="rId190" tooltip="Auto-Reactive Stimm Injector" display="https://tacticus.fandom.com/wiki/Auto-Reactive_Stimm_Injector" xr:uid="{047FCC5A-CE37-449D-9BE0-6946B93537D4}"/>
-    <hyperlink ref="A234" r:id="rId191" tooltip="Bastion Honour" display="https://tacticus.fandom.com/wiki/Bastion_Honour" xr:uid="{2FBD5EBF-1693-4457-9464-BF03B661A0CE}"/>
-    <hyperlink ref="A235" r:id="rId192" tooltip="Bell of Despair" display="https://tacticus.fandom.com/wiki/Bell_of_Despair" xr:uid="{644D9F5A-BCFA-4487-9927-056F6AD871D5}"/>
-    <hyperlink ref="A236" r:id="rId193" tooltip="Black Rune" display="https://tacticus.fandom.com/wiki/Black_Rune" xr:uid="{4F432E5F-F81F-4025-B82F-AAFD0829B13B}"/>
-    <hyperlink ref="A237" r:id="rId194" tooltip="Blessed Bolts" display="https://tacticus.fandom.com/wiki/Blessed_Bolts" xr:uid="{BE2F3E04-34E7-4A06-9B23-5C1448DE5DD2}"/>
-    <hyperlink ref="A238" r:id="rId195" tooltip="Blessed Promethium Tank" display="https://tacticus.fandom.com/wiki/Blessed_Promethium_Tank" xr:uid="{1DC39C28-D8D6-4B9B-AA77-260E2BAC5226}"/>
-    <hyperlink ref="A239" r:id="rId196" tooltip="Blessing of Nurgle" display="https://tacticus.fandom.com/wiki/Blessing_of_Nurgle" xr:uid="{DF81B4B3-BE94-4037-93F9-263305F314C1}"/>
-    <hyperlink ref="A240" r:id="rId197" tooltip="Blessing of the Dark Gods" display="https://tacticus.fandom.com/wiki/Blessing_of_the_Dark_Gods" xr:uid="{88680568-53BA-49B0-AC39-78D1DBF70843}"/>
-    <hyperlink ref="A241" r:id="rId198" tooltip="Bolts of Furious Vengeance" display="https://tacticus.fandom.com/wiki/Bolts_of_Furious_Vengeance" xr:uid="{E13BDAB3-ACFB-4E6E-A7F4-FFF7F8FB4F6E}"/>
-    <hyperlink ref="A242" r:id="rId199" tooltip="Bones of the Paragons" display="https://tacticus.fandom.com/wiki/Bones_of_the_Paragons" xr:uid="{9A2E77D2-E96F-4C4E-A324-167B1285E72D}"/>
-    <hyperlink ref="A243" r:id="rId200" tooltip="Bosspole" display="https://tacticus.fandom.com/wiki/Bosspole" xr:uid="{E8446F23-736C-4148-9275-A4E7F3484A70}"/>
-    <hyperlink ref="A244" r:id="rId201" tooltip="Candelabrum of Burning Wrath" display="https://tacticus.fandom.com/wiki/Candelabrum_of_Burning_Wrath" xr:uid="{59173530-37C6-47F5-80B4-1E76B8CB46EC}"/>
-    <hyperlink ref="A245" r:id="rId202" tooltip="Ceramite Plates" display="https://tacticus.fandom.com/wiki/Ceramite_Plates" xr:uid="{42581868-FD8C-4571-899D-5FBC91351EDE}"/>
-    <hyperlink ref="A246" r:id="rId203" tooltip="Chain of Zealous Wrath" display="https://tacticus.fandom.com/wiki/Chain_of_Zealous_Wrath" xr:uid="{1DEA06FD-FA95-42FB-B45E-EA8B2A9158DE}"/>
-    <hyperlink ref="A247" r:id="rId204" tooltip="Cloud of Flies" display="https://tacticus.fandom.com/wiki/Cloud_of_Flies" xr:uid="{21F0403E-F729-437D-B88E-4B4764F98E3B}"/>
-    <hyperlink ref="A248" r:id="rId205" tooltip="Codex Astartes" display="https://tacticus.fandom.com/wiki/Codex_Astartes" xr:uid="{F91D26C3-44AC-4A81-9993-7B4C81410EAE}"/>
-    <hyperlink ref="A249" r:id="rId206" tooltip="Codex Page" display="https://tacticus.fandom.com/wiki/Codex_Page" xr:uid="{EDA9670D-864F-4535-97E7-1674FFFAC238}"/>
-    <hyperlink ref="A250" r:id="rId207" tooltip="Cybork Body Parts" display="https://tacticus.fandom.com/wiki/Cybork_Body_Parts" xr:uid="{A855D98E-6687-4967-8F71-DAE51AFD1D2D}"/>
-    <hyperlink ref="A251" r:id="rId208" tooltip="Daemon Shells" display="https://tacticus.fandom.com/wiki/Daemon_Shells" xr:uid="{507B471A-7C54-488A-A5A5-C18ADCEAAE51}"/>
-    <hyperlink ref="A252" r:id="rId209" tooltip="Ded Brutal Iron Jaw" display="https://tacticus.fandom.com/wiki/Ded_Brutal_Iron_Jaw" xr:uid="{2921A92D-E774-4909-9702-B45B415A4592}"/>
-    <hyperlink ref="A253" r:id="rId210" tooltip="Ded Shiny 'Ard Plate" display="https://tacticus.fandom.com/wiki/Ded_Shiny_%27Ard_Plate" xr:uid="{48F388AE-3CD4-4BE3-AF4B-072B95F5A3F5}"/>
-    <hyperlink ref="A254" r:id="rId211" tooltip="Divine Cloak" display="https://tacticus.fandom.com/wiki/Divine_Cloak" xr:uid="{7E0D41C9-6A7F-4E1E-BC0F-6380886CF741}"/>
-    <hyperlink ref="A255" r:id="rId212" tooltip="Engram Neurochip" display="https://tacticus.fandom.com/wiki/Engram_Neurochip" xr:uid="{32E5C9B2-D045-406D-9AF6-33A630E01491}"/>
-    <hyperlink ref="A256" r:id="rId213" tooltip="Engrammatic Entangler" display="https://tacticus.fandom.com/wiki/Engrammatic_Entangler" xr:uid="{B6852FD6-7EAD-4392-AA7E-5D7133C05045}"/>
-    <hyperlink ref="A257" r:id="rId214" tooltip="Epaulettes of Renown" display="https://tacticus.fandom.com/wiki/Epaulettes_of_Renown" xr:uid="{15F00AB5-9B14-447D-AEFA-E632C5D5F3D9}"/>
-    <hyperlink ref="A258" r:id="rId215" tooltip="Frostblade" display="https://tacticus.fandom.com/wiki/Frostblade" xr:uid="{A440F88D-0EDB-42CE-9E4F-2D309E4B08D9}"/>
-    <hyperlink ref="A259" r:id="rId216" tooltip="Grandiose Skull Ornament" display="https://tacticus.fandom.com/wiki/Grandiose_Skull_Ornament" xr:uid="{8C68F6BB-DB78-412C-A508-1585DCE9D98E}"/>
-    <hyperlink ref="A260" r:id="rId217" tooltip="Heirloom Entrenching Tool" display="https://tacticus.fandom.com/wiki/Heirloom_Entrenching_Tool" xr:uid="{C08E8877-E129-40A6-A325-1A4495102FEF}"/>
-    <hyperlink ref="A261" r:id="rId218" tooltip="Hellfury Bolts" display="https://tacticus.fandom.com/wiki/Hellfury_Bolts" xr:uid="{FB82E5E6-9014-4E3D-9C8F-2B31F5A08C6A}"/>
-    <hyperlink ref="A262" r:id="rId219" tooltip="Holy Chaplet" display="https://tacticus.fandom.com/wiki/Holy_Chaplet" xr:uid="{BAD2550D-FB55-41A9-A0E7-C96D8BB4F2BD}"/>
-    <hyperlink ref="A263" r:id="rId220" tooltip="Holy Corset Armor" display="https://tacticus.fandom.com/wiki/Holy_Corset_Armor" xr:uid="{55BABFFB-E3A9-48B4-8A9E-2E66BFFD0DDE}"/>
-    <hyperlink ref="A264" r:id="rId221" tooltip="Honourifica Imperialis" display="https://tacticus.fandom.com/wiki/Honourifica_Imperialis" xr:uid="{1AA0A5F9-447C-4954-92C1-541FEFB45E45}"/>
-    <hyperlink ref="A265" r:id="rId222" tooltip="Hymn of the Divine" display="https://tacticus.fandom.com/wiki/Hymn_of_the_Divine" xr:uid="{3F9AA574-C26B-4828-9C06-6B513B4770F2}"/>
-    <hyperlink ref="A266" r:id="rId223" tooltip="Ice Wyrm Hide" display="https://tacticus.fandom.com/wiki/Ice_Wyrm_Hide" xr:uid="{7CC463CA-E994-4138-B82B-9D18994843D4}"/>
-    <hyperlink ref="A267" r:id="rId224" tooltip="Icon of Infernal Vengeance" display="https://tacticus.fandom.com/wiki/Icon_of_Infernal_Vengeance" xr:uid="{0FD1A076-31BD-4583-B75D-119A7059F3D2}"/>
-    <hyperlink ref="A268" r:id="rId225" tooltip="Immaterial Shroud" display="https://tacticus.fandom.com/wiki/Immaterial_Shroud" xr:uid="{655D22D2-D7F8-4C30-AFB9-23F4CB74F438}"/>
-    <hyperlink ref="A269" r:id="rId226" tooltip="Infernal Armor Trim" display="https://tacticus.fandom.com/wiki/Infernal_Armor_Trim" xr:uid="{546383F0-3920-435B-8F57-1D6C56D32B95}"/>
-    <hyperlink ref="A270" r:id="rId227" tooltip="Infernal Eye of Horus" display="https://tacticus.fandom.com/wiki/Infernal_Eye_of_Horus" xr:uid="{F761B75C-10B3-4A21-B054-794671CA68C8}"/>
-    <hyperlink ref="A271" r:id="rId228" tooltip="Inner Circle Hood" display="https://tacticus.fandom.com/wiki/Inner_Circle_Hood" xr:uid="{681792A5-600D-4F8B-ABD2-72048F8CECFB}"/>
-    <hyperlink ref="A272" r:id="rId229" tooltip="Iridium Plating" display="https://tacticus.fandom.com/wiki/Iridium_Plating" xr:uid="{69A9518C-46E6-4F7F-A2B5-B9598DA774D3}"/>
-    <hyperlink ref="A273" r:id="rId230" tooltip="Key of Achrabael" display="https://tacticus.fandom.com/wiki/Key_of_Achrabael" xr:uid="{778B9F20-33F0-4049-B74B-00FF52C9012A}"/>
-    <hyperlink ref="A274" r:id="rId231" tooltip="Kraken Tooth Necklace" display="https://tacticus.fandom.com/wiki/Kraken_Tooth_Necklace" xr:uid="{2745FE65-2F74-44AF-8F46-2DF2547B31CE}"/>
-    <hyperlink ref="A275" r:id="rId232" tooltip="Kustom Gubbinz" display="https://tacticus.fandom.com/wiki/Kustom_Gubbinz" xr:uid="{C6608A31-B2DF-432D-A42D-D9759FBFD103}"/>
-    <hyperlink ref="A276" r:id="rId233" tooltip="Legendary Reliquary of Protection" display="https://tacticus.fandom.com/wiki/Legendary_Reliquary_of_Protection" xr:uid="{35D33F81-AF4E-4965-BAD1-D54E7FEF9571}"/>
-    <hyperlink ref="A277" r:id="rId234" tooltip="Legendary Reliquary of Vengeance" display="https://tacticus.fandom.com/wiki/Legendary_Reliquary_of_Vengeance" xr:uid="{D6DE98C5-D124-467D-91EE-5406C1BD64EC}"/>
-    <hyperlink ref="A278" r:id="rId235" tooltip="Mark of Chaos Undivided" display="https://tacticus.fandom.com/wiki/Mark_of_Chaos_Undivided" xr:uid="{8195F8BB-5B63-4443-8C08-DCB0E6A4A32A}"/>
-    <hyperlink ref="A279" r:id="rId236" tooltip="Mark of Nurgle" display="https://tacticus.fandom.com/wiki/Mark_of_Nurgle" xr:uid="{CBF84A02-2B35-4AD8-8FBB-486FF4CDF48F}"/>
-    <hyperlink ref="A280" r:id="rId237" tooltip="Master-Crafted Ammo" display="https://tacticus.fandom.com/wiki/Master-Crafted_Ammo" xr:uid="{4A5525E8-D290-4C0C-8989-2029B69F65FE}"/>
-    <hyperlink ref="A281" r:id="rId238" tooltip="Medallion Resolute" display="https://tacticus.fandom.com/wiki/Medallion_Resolute" xr:uid="{355D5635-7765-4BC2-B6E0-BE9F768FA44D}"/>
-    <hyperlink ref="A282" r:id="rId239" tooltip="Molecular Vaporiser" display="https://tacticus.fandom.com/wiki/Molecular_Vaporiser" xr:uid="{DCB5CC32-3030-46D9-80AF-19CFE21C3644}"/>
-    <hyperlink ref="A283" r:id="rId240" tooltip="Multi-Spectrum Sensor Suite" display="https://tacticus.fandom.com/wiki/Multi-Spectrum_Sensor_Suite" xr:uid="{7E101E57-7DEB-4713-BFCE-1D39570813AF}"/>
-    <hyperlink ref="A284" r:id="rId241" tooltip="Mutation: Daemonic Power" display="https://tacticus.fandom.com/wiki/Mutation:_Daemonic_Power" xr:uid="{F6F24064-7E5B-45D7-8A4F-0EF678A4B1E7}"/>
-    <hyperlink ref="A285" r:id="rId242" tooltip="Mutation: Impenetrable Skin" display="https://tacticus.fandom.com/wiki/Mutation:_Impenetrable_Skin" xr:uid="{7E224910-2365-49C6-AF05-DF3D465AC229}"/>
-    <hyperlink ref="A286" r:id="rId243" tooltip="Mysterious Shielding Device" display="https://tacticus.fandom.com/wiki/Mysterious_Shielding_Device" xr:uid="{4AE172C5-491F-411A-98E2-A7CF7BD324BE}"/>
-    <hyperlink ref="A287" r:id="rId244" tooltip="Octarian Crusade Seal" display="https://tacticus.fandom.com/wiki/Octarian_Crusade_Seal" xr:uid="{F36A8E33-9C02-49B5-9840-B29D6832BE64}"/>
-    <hyperlink ref="A288" r:id="rId245" tooltip="Overcapacitator" display="https://tacticus.fandom.com/wiki/Overcapacitator" xr:uid="{9EDE8616-0560-41E9-AC33-6455CDE5136E}"/>
-    <hyperlink ref="A289" r:id="rId246" tooltip="Perfidious Relic of the Unforgiven" display="https://tacticus.fandom.com/wiki/Perfidious_Relic_of_the_Unforgiven" xr:uid="{9A432498-7AFF-46D2-8FEA-DBB1E777FAD5}"/>
-    <hyperlink ref="A290" r:id="rId247" tooltip="Personal Saga" display="https://tacticus.fandom.com/wiki/Personal_Saga" xr:uid="{96919A2D-EE84-4FAE-B83E-42C09A77439A}"/>
-    <hyperlink ref="A291" r:id="rId248" tooltip="Phylacterine Hive" display="https://tacticus.fandom.com/wiki/Phylacterine_Hive" xr:uid="{5FAB120E-5CB4-40BA-9E06-BD9E0F5BB719}"/>
-    <hyperlink ref="A292" r:id="rId249" tooltip="Portentious Xenos Glyphs" display="https://tacticus.fandom.com/wiki/Portentious_Xenos_Glyphs" xr:uid="{4B3C6C05-99AD-4B66-BFAE-E7F7C6AC3643}"/>
-    <hyperlink ref="A293" r:id="rId250" tooltip="Powered Blades" display="https://tacticus.fandom.com/wiki/Powered_Blades" xr:uid="{9EE08E1C-EF53-4184-BB35-C75765B33B5D}"/>
-    <hyperlink ref="A294" r:id="rId251" tooltip="Protocol of the Eternal Guardian" display="https://tacticus.fandom.com/wiki/Protocol_of_the_Eternal_Guardian" xr:uid="{8AD6C2B4-45BA-488E-BD04-3622A1183FE8}"/>
-    <hyperlink ref="A295" r:id="rId252" tooltip="Purity Seal of the Primarch" display="https://tacticus.fandom.com/wiki/Purity_Seal_of_the_Primarch" xr:uid="{9A0EC976-BA2E-4249-A578-1139A96C0357}"/>
-    <hyperlink ref="A296" r:id="rId253" tooltip="Relic Auxiliary Core" display="https://tacticus.fandom.com/wiki/Relic_Auxiliary_Core" xr:uid="{F07057C8-23F8-4F12-816D-9221665AFE36}"/>
-    <hyperlink ref="A297" r:id="rId254" tooltip="Relic Bionic Enhancement" display="https://tacticus.fandom.com/wiki/Relic_Bionic_Enhancement" xr:uid="{1F25ABD9-B1B7-483E-8EC4-A00DC471F1BA}"/>
-    <hyperlink ref="A298" r:id="rId255" tooltip="Relic Micro-Generator" display="https://tacticus.fandom.com/wiki/Relic_Micro-Generator" xr:uid="{64D7291C-F0BB-46F4-9481-D9DD1FD7E473}"/>
-    <hyperlink ref="A299" r:id="rId256" tooltip="Relic Tasset Plate" display="https://tacticus.fandom.com/wiki/Relic_Tasset_Plate" xr:uid="{B0CAA8DD-AD53-4699-BA7C-5A4145652A59}"/>
-    <hyperlink ref="A300" r:id="rId257" tooltip="Resplendent Spirit Stone" display="https://tacticus.fandom.com/wiki/Resplendent_Spirit_Stone" xr:uid="{EFA1E386-EE9F-43ED-82F6-7934A5372ACA}"/>
-    <hyperlink ref="A301" r:id="rId258" tooltip="Roses of the Divine" display="https://tacticus.fandom.com/wiki/Roses_of_the_Divine" xr:uid="{B0483A4D-DAB5-4643-9830-A91560A92F84}"/>
-    <hyperlink ref="A302" r:id="rId259" tooltip="Runes of Fate" display="https://tacticus.fandom.com/wiki/Runes_of_Fate" xr:uid="{C21DFA93-46F6-4FDA-980E-D1BAFD4E13BB}"/>
-    <hyperlink ref="A303" r:id="rId260" tooltip="Sabbat-Pattern Visor" display="https://tacticus.fandom.com/wiki/Sabbat-Pattern_Visor" xr:uid="{AC83C28B-AAE1-4D22-BE95-33B41433A7EA}"/>
-    <hyperlink ref="A304" r:id="rId261" tooltip="Sash of Honors" display="https://tacticus.fandom.com/wiki/Sash_of_Honors" xr:uid="{90ABB7F0-94E6-4001-A5E9-00EFA8DF5FD3}"/>
-    <hyperlink ref="A305" r:id="rId262" tooltip="Scriptures of Battle" display="https://tacticus.fandom.com/wiki/Scriptures_of_Battle" xr:uid="{442E3E77-E163-4DBD-960B-5727F1ED76E6}"/>
-    <hyperlink ref="A306" r:id="rId263" tooltip="Scriptures of Fate" display="https://tacticus.fandom.com/wiki/Scriptures_of_Fate" xr:uid="{97829DA2-A104-4EAA-83CC-3D7A03B938EC}"/>
-    <hyperlink ref="A307" r:id="rId264" tooltip="Scriptures of Fortune" display="https://tacticus.fandom.com/wiki/Scriptures_of_Fortune" xr:uid="{26562BEA-6676-433F-B175-4C502A74D0AE}"/>
-    <hyperlink ref="A308" r:id="rId265" tooltip="Seal of the Emperor's Protection" display="https://tacticus.fandom.com/wiki/Seal_of_the_Emperor%27s_Protection" xr:uid="{E0347ACF-CA74-4158-BEC7-B59F2A0CBAC1}"/>
-    <hyperlink ref="A309" r:id="rId266" tooltip="Sentry AI Drone Controller" display="https://tacticus.fandom.com/wiki/Sentry_AI_Drone_Controller" xr:uid="{4211092A-2451-4E14-BC1F-3621D5A8B35F}"/>
-    <hyperlink ref="A310" r:id="rId267" tooltip="Shiny Boss Teef" display="https://tacticus.fandom.com/wiki/Shiny_Boss_Teef" xr:uid="{14501B94-3B60-4AB1-88BB-67D0609F68F5}"/>
-    <hyperlink ref="A311" r:id="rId268" tooltip="Shroud of Heroes" display="https://tacticus.fandom.com/wiki/Shroud_of_Heroes" xr:uid="{9AD758C3-820B-488C-A75C-C8AED82459D4}"/>
-    <hyperlink ref="A312" r:id="rId269" tooltip="Sigil of Eternal Decay" display="https://tacticus.fandom.com/wiki/Sigil_of_Eternal_Decay" xr:uid="{3729974A-9611-471B-98C5-E32155789C76}"/>
-    <hyperlink ref="A313" r:id="rId270" tooltip="Simulacrum Sanctorum" display="https://tacticus.fandom.com/wiki/Simulacrum_Sanctorum" xr:uid="{326D08BE-19B5-4B2E-BBE6-48FF3BEFD2C7}"/>
-    <hyperlink ref="A314" r:id="rId271" tooltip="Snazzy Dakka" display="https://tacticus.fandom.com/wiki/Snazzy_Dakka" xr:uid="{6EFC3F05-3E7C-40B7-BDB5-6593F481AD21}"/>
-    <hyperlink ref="A315" r:id="rId272" tooltip="Sophisticated Material Plates" display="https://tacticus.fandom.com/wiki/Sophisticated_Material_Plates" xr:uid="{4C414921-4110-4FA3-B71A-680E2FF8E114}"/>
-    <hyperlink ref="A316" r:id="rId273" tooltip="Soul-Bonded Psytronome" display="https://tacticus.fandom.com/wiki/Soul-Bonded_Psytronome" xr:uid="{C2BE2D44-BADD-4588-B9C0-6AFBAA2BD175}"/>
-    <hyperlink ref="A317" r:id="rId274" tooltip="Soul-Bonded Wraithbone Plate" display="https://tacticus.fandom.com/wiki/Soul-Bonded_Wraithbone_Plate" xr:uid="{6C518F02-81EA-4B54-BC44-97C2CBA6275C}"/>
-    <hyperlink ref="A318" r:id="rId275" tooltip="Stone Guardian Fragment" display="https://tacticus.fandom.com/wiki/Stone_Guardian_Fragment" xr:uid="{3815D85C-DDBD-42F7-A1CA-25D264AD9CA2}"/>
-    <hyperlink ref="A319" r:id="rId276" tooltip="Tabbard of Righteous Wrath" display="https://tacticus.fandom.com/wiki/Tabbard_of_Righteous_Wrath" xr:uid="{BDA70773-EDF3-4086-8FDD-AFCF69F84C0D}"/>
-    <hyperlink ref="A320" r:id="rId277" tooltip="Talisman of Storms" display="https://tacticus.fandom.com/wiki/Talisman_of_Storms" xr:uid="{3E88C8A8-C381-4E4F-B114-AFFAB359A0FF}"/>
-    <hyperlink ref="A321" r:id="rId278" tooltip="Target Lock" display="https://tacticus.fandom.com/wiki/Target_Lock" xr:uid="{112B2225-9082-4C18-92E9-2357ABCBBE77}"/>
-    <hyperlink ref="A322" r:id="rId279" tooltip="Ta'Lissera Bond" display="https://tacticus.fandom.com/wiki/Ta%27Lissera_Bond" xr:uid="{BA0E14FB-D404-40F2-84F8-1AF20CC22E91}"/>
-    <hyperlink ref="A323" r:id="rId280" tooltip="Tannhauser's Bones" display="https://tacticus.fandom.com/wiki/Tannhauser%27s_Bones" xr:uid="{DB72DCBF-3E35-42CD-9AA9-35AED68C632C}"/>
-    <hyperlink ref="A324" r:id="rId281" tooltip="Tome of Arcane Knowledge" display="https://tacticus.fandom.com/wiki/Tome_of_Arcane_Knowledge" xr:uid="{40C0017A-8877-4841-B798-371B3AD83CFC}"/>
-    <hyperlink ref="A325" r:id="rId282" tooltip="Transdimensional Sanctum" display="https://tacticus.fandom.com/wiki/Transdimensional_Sanctum" xr:uid="{3DF60859-018A-46D2-A71C-DF5D2E48E05F}"/>
-    <hyperlink ref="A326" r:id="rId283" tooltip="Virulent Rounds" display="https://tacticus.fandom.com/wiki/Virulent_Rounds" xr:uid="{AE4BB574-9DD6-47E5-A8D3-73A207282D01}"/>
-    <hyperlink ref="A327" r:id="rId284" tooltip="Warpweave Robe" display="https://tacticus.fandom.com/wiki/Warpweave_Robe" xr:uid="{54511AF7-823B-450C-BF0D-4899DC8A8829}"/>
-    <hyperlink ref="A328" r:id="rId285" tooltip="Witchseeker Bolts" display="https://tacticus.fandom.com/wiki/Witchseeker_Bolts" xr:uid="{E65F8BCD-B04B-4DA2-83E4-70F415E5D7F4}"/>
+    <hyperlink ref="A99" r:id="rId57" tooltip="Bionic Eye" display="https://tacticus.fandom.com/wiki/Bionic_Eye" xr:uid="{36B9BE26-F183-46F4-8555-A5EB434F8D64}"/>
+    <hyperlink ref="A100" r:id="rId58" tooltip="Bladesman's Honour" display="https://tacticus.fandom.com/wiki/Bladesman%27s_Honour" xr:uid="{9E88372D-39FC-47DB-8ADB-3E2409E22011}"/>
+    <hyperlink ref="A101" r:id="rId59" tooltip="Blasphemous Armor Trim" display="https://tacticus.fandom.com/wiki/Blasphemous_Armor_Trim" xr:uid="{29EBA037-7A1B-4205-8FA9-36E94B709F88}"/>
+    <hyperlink ref="A102" r:id="rId60" tooltip="Blessed Corset Armor" display="https://tacticus.fandom.com/wiki/Blessed_Corset_Armor" xr:uid="{B813FBFC-1DC4-4327-9B5F-8CEB9B8ED220}"/>
+    <hyperlink ref="A103" r:id="rId61" tooltip="Blessed Purity Seal" display="https://tacticus.fandom.com/wiki/Blessed_Purity_Seal" xr:uid="{88FC3BF1-2C32-47F9-94A0-4ABFBF8632EB}"/>
+    <hyperlink ref="A104" r:id="rId62" tooltip="Blessed Tabbard" display="https://tacticus.fandom.com/wiki/Blessed_Tabbard" xr:uid="{EA2AD99F-A88B-4489-B68C-1D010186D879}"/>
+    <hyperlink ref="A105" r:id="rId63" tooltip="Box of Ammo" display="https://tacticus.fandom.com/wiki/Box_of_Ammo" xr:uid="{60F1760E-AFAF-4F9E-BE8D-D7FEBEDB0999}"/>
+    <hyperlink ref="A106" r:id="rId64" tooltip="Box of Rations" display="https://tacticus.fandom.com/wiki/Box_of_Rations" xr:uid="{92FEB241-35F7-45FD-94AA-4ED35C2790EC}"/>
+    <hyperlink ref="A107" r:id="rId65" tooltip="Ceramite Bar" display="https://tacticus.fandom.com/wiki/Ceramite_Bar" xr:uid="{CD726F9F-A804-42B2-A422-FBA0EDCE97E3}"/>
+    <hyperlink ref="A108" r:id="rId66" tooltip="Chain of Zeal" display="https://tacticus.fandom.com/wiki/Chain_of_Zeal" xr:uid="{390BAAA8-26C3-40A9-BF6D-05CB78EEF858}"/>
+    <hyperlink ref="A109" r:id="rId67" tooltip="Chapter Pendant" display="https://tacticus.fandom.com/wiki/Chapter_Pendant" xr:uid="{B646814D-09C7-4217-96E6-66F1A03A252C}"/>
+    <hyperlink ref="A110" r:id="rId68" tooltip="Classified Data-Slate" display="https://tacticus.fandom.com/wiki/Classified_Data-Slate" xr:uid="{6CEE73F8-72E4-4303-821D-97AAD9B4BCE0}"/>
+    <hyperlink ref="A111" r:id="rId69" tooltip="Crate of Salvage" display="https://tacticus.fandom.com/wiki/Crate_of_Salvage" xr:uid="{558E8227-9BE0-4DCC-A105-AB65CF34AD99}"/>
+    <hyperlink ref="A112" r:id="rId70" tooltip="Dark Hood" display="https://tacticus.fandom.com/wiki/Dark_Hood" xr:uid="{CB7E5D71-5B2B-406E-A204-624354FF4277}"/>
+    <hyperlink ref="A113" r:id="rId71" tooltip="Digital Weapons" display="https://tacticus.fandom.com/wiki/Digital_Weapons" xr:uid="{47225B54-7870-4C93-85B5-8E6B99665A1D}"/>
+    <hyperlink ref="A114" r:id="rId72" tooltip="Drone Controller" display="https://tacticus.fandom.com/wiki/Drone_Controller" xr:uid="{584871D8-BB82-489F-913B-A07A1C6616AB}"/>
+    <hyperlink ref="A115" r:id="rId73" tooltip="Electromantic Cable Bundle" display="https://tacticus.fandom.com/wiki/Electromantic_Cable_Bundle" xr:uid="{68BDB6C9-A375-4E4A-B922-46DE06C8764A}"/>
+    <hyperlink ref="A116" r:id="rId74" tooltip="Entrenching Tool" display="https://tacticus.fandom.com/wiki/Entrenching_Tool" xr:uid="{CE97734A-D46F-40DC-9742-53ABE39A211B}"/>
+    <hyperlink ref="A117" r:id="rId75" tooltip="Eye of Horus" display="https://tacticus.fandom.com/wiki/Eye_of_Horus" xr:uid="{8623F529-75AC-4138-934E-0E56DCCC5C34}"/>
+    <hyperlink ref="A118" r:id="rId76" tooltip="Fine Cloak" display="https://tacticus.fandom.com/wiki/Fine_Cloak" xr:uid="{788C0EC8-F494-4032-A223-11DF244F1EC5}"/>
+    <hyperlink ref="A119" r:id="rId77" tooltip="Flak Plates" display="https://tacticus.fandom.com/wiki/Flak_Plates" xr:uid="{53456BBE-7F10-4565-A67A-46131F9354C7}"/>
+    <hyperlink ref="A120" r:id="rId78" tooltip="Grand Skull Trophy" display="https://tacticus.fandom.com/wiki/Grand_Skull_Trophy" xr:uid="{B0707D8E-689A-439D-9D7D-082156D5F96F}"/>
+    <hyperlink ref="A121" r:id="rId79" tooltip="High-Capacity Power Pack" display="https://tacticus.fandom.com/wiki/High-Capacity_Power_Pack" xr:uid="{C54FE201-EE95-4B13-BC1D-41692FF77100}"/>
+    <hyperlink ref="A122" r:id="rId80" tooltip="Hymn of Martyrs" display="https://tacticus.fandom.com/wiki/Hymn_of_Martyrs" xr:uid="{931E8532-2F48-476D-941F-45C21288B17F}"/>
+    <hyperlink ref="A123" r:id="rId81" tooltip="Icon of Vengeance" display="https://tacticus.fandom.com/wiki/Icon_of_Vengeance" xr:uid="{ACA2001B-F62D-472A-BA90-71437AC82E31}"/>
+    <hyperlink ref="A124" r:id="rId82" tooltip="Impressive Armor Trim" display="https://tacticus.fandom.com/wiki/Impressive_Armor_Trim" xr:uid="{38386BDF-3526-4BE4-A228-AE333D9880B7}"/>
+    <hyperlink ref="A125" r:id="rId83" tooltip="Iron Jaw" display="https://tacticus.fandom.com/wiki/Iron_Jaw" xr:uid="{76040F93-7042-4BC5-8423-C72C7AD4AF3E}"/>
+    <hyperlink ref="A126" r:id="rId84" tooltip="Key of Ignorance" display="https://tacticus.fandom.com/wiki/Key_of_Ignorance" xr:uid="{9929A163-11EE-4AAD-8987-7DD468A1DCF8}"/>
+    <hyperlink ref="A127" r:id="rId85" tooltip="Kill Count" display="https://tacticus.fandom.com/wiki/Kill_Count" xr:uid="{9C5B6B9B-46AE-4DBE-841B-AE27911CCBEA}"/>
+    <hyperlink ref="A128" r:id="rId86" tooltip="Krak Grenade" display="https://tacticus.fandom.com/wiki/Krak_Grenade" xr:uid="{593675AD-AEF3-46D6-86AB-AD347F8D6C83}"/>
+    <hyperlink ref="A129" r:id="rId87" tooltip="Medical Supply Crate" display="https://tacticus.fandom.com/wiki/Medical_Supply_Crate" xr:uid="{5EB17191-3E64-4D4F-AF0A-63404C8AA275}"/>
+    <hyperlink ref="A130" r:id="rId88" tooltip="Mesh Weave Garment" display="https://tacticus.fandom.com/wiki/Mesh_Weave_Garment" xr:uid="{5C4BCB36-B182-4A8B-B012-DBE27ED335D3}"/>
+    <hyperlink ref="A131" r:id="rId89" tooltip="Metal Decorative Skull" display="https://tacticus.fandom.com/wiki/Metal_Decorative_Skull" xr:uid="{43048C27-DFD6-4AD0-BC42-42EBDCBE3815}"/>
+    <hyperlink ref="A132" r:id="rId90" tooltip="Murderous Spikes" display="https://tacticus.fandom.com/wiki/Murderous_Spikes" xr:uid="{73AFC3C7-7997-4280-BA11-4D74007A87D8}"/>
+    <hyperlink ref="A133" r:id="rId91" tooltip="Mutation: Daemonic Horns" display="https://tacticus.fandom.com/wiki/Mutation:_Daemonic_Horns" xr:uid="{B1BBF6C4-D87B-428B-B5AD-E7BFF8C94399}"/>
+    <hyperlink ref="A134" r:id="rId92" tooltip="Mutation: Warped Heart" display="https://tacticus.fandom.com/wiki/Mutation:_Warped_Heart" xr:uid="{8D7033CD-7CE6-4DB4-BE16-71E5968221F9}"/>
+    <hyperlink ref="A135" r:id="rId93" tooltip="Mutation: Warped Skin" display="https://tacticus.fandom.com/wiki/Mutation:_Warped_Skin" xr:uid="{769018FC-D3CD-442B-986F-E500DC49E8E1}"/>
+    <hyperlink ref="A136" r:id="rId94" tooltip="Plague Bell" display="https://tacticus.fandom.com/wiki/Plague_Bell" xr:uid="{F9B0A485-55B0-4B96-A296-C8D0DA14B485}"/>
+    <hyperlink ref="A137" r:id="rId95" tooltip="Plasma Cell Bundle" display="https://tacticus.fandom.com/wiki/Plasma_Cell_Bundle" xr:uid="{6D8B8F33-2C39-4C4A-8646-A312FF7C282E}"/>
+    <hyperlink ref="A138" r:id="rId96" tooltip="Powerful Auxiliary Core" display="https://tacticus.fandom.com/wiki/Powerful_Auxiliary_Core" xr:uid="{4F0EF19B-2829-4136-9E8E-1C18EEB83127}"/>
+    <hyperlink ref="A139" r:id="rId97" tooltip="Powerful Micro-Generator" display="https://tacticus.fandom.com/wiki/Powerful_Micro-Generator" xr:uid="{7ADEBE62-27EB-4A93-94ED-94B422AA871D}"/>
+    <hyperlink ref="A140" r:id="rId98" tooltip="Prey-Sight" display="https://tacticus.fandom.com/wiki/Prey-Sight" xr:uid="{ABED740F-1FCF-4D9D-88B1-DEFFD9E41F48}"/>
+    <hyperlink ref="A141" r:id="rId99" tooltip="Psytronome" display="https://tacticus.fandom.com/wiki/Psytronome" xr:uid="{598D254A-3F44-417B-AB26-DF96E43CAA4D}"/>
+    <hyperlink ref="A142" r:id="rId100" tooltip="Ratiocination Targeting" display="https://tacticus.fandom.com/wiki/Ratiocination_Targeting" xr:uid="{0EBF5B93-DD3A-47F3-B6C0-0151CE9B82C9}"/>
+    <hyperlink ref="A143" r:id="rId101" tooltip="Reconstitution Protocols" display="https://tacticus.fandom.com/wiki/Reconstitution_Protocols" xr:uid="{950E7497-D567-40FE-B25B-F831BE9D1A5A}"/>
+    <hyperlink ref="A144" r:id="rId102" tooltip="Repair-Kit" display="https://tacticus.fandom.com/wiki/Repair-Kit" xr:uid="{FA5D1759-DF9B-4ADD-958A-B4E912D34F43}"/>
+    <hyperlink ref="A145" r:id="rId103" tooltip="Righteous Candle" display="https://tacticus.fandom.com/wiki/Righteous_Candle" xr:uid="{2003DAA5-144D-4745-B7B4-6912896AE862}"/>
+    <hyperlink ref="A146" r:id="rId104" tooltip="Rose of Martyrs" display="https://tacticus.fandom.com/wiki/Rose_of_Martyrs" xr:uid="{79367AD7-8552-45FA-89AD-BD270B81493D}"/>
+    <hyperlink ref="A147" r:id="rId105" tooltip="Sanctified Reliquary of Protection" display="https://tacticus.fandom.com/wiki/Sanctified_Reliquary_of_Protection" xr:uid="{A2249487-0904-4C82-989C-CE3956B476F7}"/>
+    <hyperlink ref="A148" r:id="rId106" tooltip="Sanctified Weapon Oils" display="https://tacticus.fandom.com/wiki/Sanctified_Weapon_Oils" xr:uid="{50EE812B-8D26-45BD-A78B-DC473A19F5FC}"/>
+    <hyperlink ref="A149" r:id="rId107" tooltip="Scale-Plate Strand" display="https://tacticus.fandom.com/wiki/Scale-Plate_Strand" xr:uid="{02634FD6-C17E-49A4-B650-73C1BCB1F366}"/>
+    <hyperlink ref="A150" r:id="rId108" tooltip="Sensor Suite" display="https://tacticus.fandom.com/wiki/Sensor_Suite" xr:uid="{364ED316-04E2-43C5-A944-79C6F7CA88A6}"/>
+    <hyperlink ref="A151" r:id="rId109" tooltip="Sigil of Decay" display="https://tacticus.fandom.com/wiki/Sigil_of_Decay" xr:uid="{306368CC-CA3D-4653-9D53-83DA818E88A5}"/>
+    <hyperlink ref="A152" r:id="rId110" tooltip="Sophisticated Material Bar" display="https://tacticus.fandom.com/wiki/Sophisticated_Material_Bar" xr:uid="{5531CBF1-0DE3-4181-A218-997301579E60}"/>
+    <hyperlink ref="A153" r:id="rId111" tooltip="Stimm Injector" display="https://tacticus.fandom.com/wiki/Stimm_Injector" xr:uid="{C9D32BDF-F19D-4E5D-A991-BCCE88B5FE01}"/>
+    <hyperlink ref="A154" r:id="rId112" tooltip="Supernatural Sight" display="https://tacticus.fandom.com/wiki/Supernatural_Sight" xr:uid="{2BB38841-345A-4DD0-BDC7-8AE658A0A5BF}"/>
+    <hyperlink ref="A155" r:id="rId113" tooltip="Tank of Promethium" display="https://tacticus.fandom.com/wiki/Tank_of_Promethium" xr:uid="{6C5EBFDB-DFD2-4075-9DF4-E10D67DED678}"/>
+    <hyperlink ref="A156" r:id="rId114" tooltip="The Phoenix Ascendant" display="https://tacticus.fandom.com/wiki/The_Phoenix_Ascendant" xr:uid="{23D7916C-F88D-4614-BBD7-D4E811C823D7}"/>
+    <hyperlink ref="A157" r:id="rId115" tooltip="Unnatural Vapour Dispenser" display="https://tacticus.fandom.com/wiki/Unnatural_Vapour_Dispenser" xr:uid="{773C9C43-4EA2-4891-B6AF-11C679980642}"/>
+    <hyperlink ref="A158" r:id="rId116" tooltip="Viridian Energy Tesseract" display="https://tacticus.fandom.com/wiki/Viridian_Energy_Tesseract" xr:uid="{3BC64D15-9087-4B0E-959B-30300B40241B}"/>
+    <hyperlink ref="A159" r:id="rId117" tooltip="Waystone" display="https://tacticus.fandom.com/wiki/Waystone" xr:uid="{263E8862-5E81-4849-AFA7-CD2F15EC0AE4}"/>
+    <hyperlink ref="A162" r:id="rId118" tooltip="Wraithbone Plate" display="https://tacticus.fandom.com/wiki/Wraithbone_Plate" xr:uid="{A79B926B-D686-42AD-ADB2-AB91BE1EEBC5}"/>
+    <hyperlink ref="A163" r:id="rId119" tooltip="Zeidos Ribbon" display="https://tacticus.fandom.com/wiki/Zeidos_Ribbon" xr:uid="{0FCC52A9-E0C3-4DB3-B522-E1E00CCD25EC}"/>
+    <hyperlink ref="A164" r:id="rId120" tooltip="Adamantium Sheet" display="https://tacticus.fandom.com/wiki/Adamantium_Sheet" xr:uid="{E09E37AF-2239-48DC-8767-8813258A57E4}"/>
+    <hyperlink ref="A165" r:id="rId121" tooltip="Advanced Drone Controller" display="https://tacticus.fandom.com/wiki/Advanced_Drone_Controller" xr:uid="{A86B5C99-FC75-4C27-AC80-4EB07DC9D703}"/>
+    <hyperlink ref="A166" r:id="rId122" tooltip="Advanced Mesh Weave Garment" display="https://tacticus.fandom.com/wiki/Advanced_Mesh_Weave_Garment" xr:uid="{AF67C62F-F286-4511-B24E-E55A07C62658}"/>
+    <hyperlink ref="A167" r:id="rId123" tooltip="Advanced Sensor Suite" display="https://tacticus.fandom.com/wiki/Advanced_Sensor_Suite" xr:uid="{8CA82054-6815-4F40-9BBC-BE06E55ACF20}"/>
+    <hyperlink ref="A168" r:id="rId124" tooltip="Advanced Stimm Injector" display="https://tacticus.fandom.com/wiki/Advanced_Stimm_Injector" xr:uid="{0FE53723-F777-472F-8CBC-E16489C0892A}"/>
+    <hyperlink ref="A169" r:id="rId125" tooltip="Ancient Tasset Plate" display="https://tacticus.fandom.com/wiki/Ancient_Tasset_Plate" xr:uid="{F97EAB59-E262-4C2C-A527-027B9D0EBE67}"/>
+    <hyperlink ref="A170" r:id="rId126" tooltip="Anointed Auxiliary Core" display="https://tacticus.fandom.com/wiki/Anointed_Auxiliary_Core" xr:uid="{A6E16822-A015-45AD-B73F-14354643E3AF}"/>
+    <hyperlink ref="A171" r:id="rId127" tooltip="Anointed Micro-Generator" display="https://tacticus.fandom.com/wiki/Anointed_Micro-Generator" xr:uid="{0CC0B279-74E2-4319-A1D6-EB5233B93CE2}"/>
+    <hyperlink ref="A172" r:id="rId128" tooltip="Belt of Krak Grenades" display="https://tacticus.fandom.com/wiki/Belt_of_Krak_Grenades" xr:uid="{B3F0ADD7-A983-49D7-9167-73DDC0142A6D}"/>
+    <hyperlink ref="A173" r:id="rId129" tooltip="Bionic Neural Pathways" display="https://tacticus.fandom.com/wiki/Bionic_Neural_Pathways" xr:uid="{D4B3FF65-10E7-4A2D-8BEB-52AF1915B2DE}"/>
+    <hyperlink ref="A174" r:id="rId130" tooltip="Blessed Promethium Canister" display="https://tacticus.fandom.com/wiki/Blessed_Promethium_Canister" xr:uid="{7F8E866A-44FB-44E8-936B-277DB160D41E}"/>
+    <hyperlink ref="A175" r:id="rId131" tooltip="Bolts of Judgement" display="https://tacticus.fandom.com/wiki/Bolts_of_Judgement" xr:uid="{2591BD93-396B-4451-B4DF-6556C79F6AFD}"/>
+    <hyperlink ref="A176" r:id="rId132" tooltip="Brutal Iron Jaw" display="https://tacticus.fandom.com/wiki/Brutal_Iron_Jaw" xr:uid="{A47005D3-0018-483F-B8E5-64773EE10B1C}"/>
+    <hyperlink ref="A177" r:id="rId133" tooltip="Calibanite Hood" display="https://tacticus.fandom.com/wiki/Calibanite_Hood" xr:uid="{23DC57FF-D374-43C0-AEFF-104712476003}"/>
+    <hyperlink ref="A178" r:id="rId134" tooltip="Ceramite Sheet" display="https://tacticus.fandom.com/wiki/Ceramite_Sheet" xr:uid="{B18F463F-F8C3-4BC4-907C-E750DB6D4048}"/>
+    <hyperlink ref="A179" r:id="rId135" tooltip="Chain of Righteous Zeal" display="https://tacticus.fandom.com/wiki/Chain_of_Righteous_Zeal" xr:uid="{E590CD98-646C-4B6D-BF6B-7CDE47CF2084}"/>
+    <hyperlink ref="A180" r:id="rId136" tooltip="Crusader's Tabbard" display="https://tacticus.fandom.com/wiki/Crusader%27s_Tabbard" xr:uid="{3C1D7863-3BFF-43F3-998E-0F40B192ABBE}"/>
+    <hyperlink ref="A181" r:id="rId137" tooltip="Daemonic Armor Trim" display="https://tacticus.fandom.com/wiki/Daemonic_Armor_Trim" xr:uid="{0B94E233-6D40-417C-BDAA-0B99C488AB63}"/>
+    <hyperlink ref="A182" r:id="rId138" tooltip="Death Bell" display="https://tacticus.fandom.com/wiki/Death_Bell" xr:uid="{4F0C9245-A9B6-43D8-A731-624725D7F944}"/>
+    <hyperlink ref="A183" r:id="rId139" tooltip="Death Shroud" display="https://tacticus.fandom.com/wiki/Death_Shroud" xr:uid="{A5E1BCA3-F332-4BF3-9B10-F649AA484730}"/>
+    <hyperlink ref="A184" r:id="rId140" tooltip="Decorated Cloak" display="https://tacticus.fandom.com/wiki/Decorated_Cloak" xr:uid="{3964E141-8DFA-4FF0-8008-8AB2D06439D3}"/>
+    <hyperlink ref="A185" r:id="rId141" tooltip="Ded 'Ard Plate" display="https://tacticus.fandom.com/wiki/Ded_%27Ard_Plate" xr:uid="{CE6697C8-1D7D-41A4-A7D0-816B6121BA02}"/>
+    <hyperlink ref="A186" r:id="rId142" tooltip="Epaulettes" display="https://tacticus.fandom.com/wiki/Epaulettes" xr:uid="{2278EADB-BB80-43E1-AA13-F1620F3CB5DC}"/>
+    <hyperlink ref="A187" r:id="rId143" tooltip="Exospine" display="https://tacticus.fandom.com/wiki/Exospine" xr:uid="{AFA5F1E4-7F9F-41CC-90E8-80CD66806AFF}"/>
+    <hyperlink ref="A188" r:id="rId144" tooltip="Exquisite Medical Supplies" display="https://tacticus.fandom.com/wiki/Exquisite_Medical_Supplies" xr:uid="{FEB348E3-B7A2-4CD4-B072-80C3BD911CFC}"/>
+    <hyperlink ref="A189" r:id="rId145" tooltip="Filligrane Psytronome" display="https://tacticus.fandom.com/wiki/Filligrane_Psytronome" xr:uid="{E5F66479-63FE-4237-B9DB-CAEEF69C3658}"/>
+    <hyperlink ref="A190" r:id="rId146" tooltip="Filligrane Wraithbone Plate" display="https://tacticus.fandom.com/wiki/Filligrane_Wraithbone_Plate" xr:uid="{7DF92E75-AD6B-4253-A821-A6F66A7EA513}"/>
+    <hyperlink ref="A191" r:id="rId147" tooltip="Golden Ornamental Skull" display="https://tacticus.fandom.com/wiki/Golden_Ornamental_Skull" xr:uid="{F01B1440-C5DE-443D-9AC3-4EBC1041598A}"/>
+    <hyperlink ref="A192" r:id="rId148" tooltip="Grand Helmet Trophy" display="https://tacticus.fandom.com/wiki/Grand_Helmet_Trophy" xr:uid="{36EC0FAF-161B-4791-A242-DCCBA1F1A407}"/>
+    <hyperlink ref="A193" r:id="rId149" tooltip="Grand Purity Seal" display="https://tacticus.fandom.com/wiki/Grand_Purity_Seal" xr:uid="{9C491C4D-E711-44E1-9EAF-30C1AB4968D2}"/>
+    <hyperlink ref="A194" r:id="rId150" tooltip="Greater Reliquary of Vengeance" display="https://tacticus.fandom.com/wiki/Greater_Reliquary_of_Vengeance" xr:uid="{00F79BF2-8942-4282-BA68-F4217E04E1B0}"/>
+    <hyperlink ref="A195" r:id="rId151" tooltip="Greater Reliquary of Protection" display="https://tacticus.fandom.com/wiki/Greater_Reliquary_of_Protection" xr:uid="{F8AB2AC1-32EF-44B2-817F-F7D5FAD2C54F}"/>
+    <hyperlink ref="A196" r:id="rId152" tooltip="High-Grade Flak Plates" display="https://tacticus.fandom.com/wiki/High-Grade_Flak_Plates" xr:uid="{65A57AEB-A2A9-444A-BD46-720065044B4F}"/>
+    <hyperlink ref="A197" r:id="rId153" tooltip="Hymn of Sacrifice" display="https://tacticus.fandom.com/wiki/Hymn_of_Sacrifice" xr:uid="{842957C0-2845-4DFE-A0B0-BED58C0CC363}"/>
+    <hyperlink ref="A198" r:id="rId154" tooltip="Hypermaterial Shifter" display="https://tacticus.fandom.com/wiki/Hypermaterial_Shifter" xr:uid="{23070956-4EA1-4C01-B1FB-B616BF586AC6}"/>
+    <hyperlink ref="A199" r:id="rId155" tooltip="Ice Troll Hide" display="https://tacticus.fandom.com/wiki/Ice_Troll_Hide" xr:uid="{E55E9407-A075-44F9-9118-22E9ECC529FC}"/>
+    <hyperlink ref="A200" r:id="rId156" tooltip="Icon of Daemonic Vengeance" display="https://tacticus.fandom.com/wiki/Icon_of_Daemonic_Vengeance" xr:uid="{8308262A-6C72-4ED8-85E6-1829CB5DA144}"/>
+    <hyperlink ref="A201" r:id="rId157" tooltip="Key of Knowledge" display="https://tacticus.fandom.com/wiki/Key_of_Knowledge" xr:uid="{1E74654D-2BED-48A6-BB53-241C318FA059}"/>
+    <hyperlink ref="A202" r:id="rId158" tooltip="Lights of Purgation" display="https://tacticus.fandom.com/wiki/Lights_of_Purgation" xr:uid="{32473DF0-0678-4E4B-A739-C53040FFA6EC}"/>
+    <hyperlink ref="A203" r:id="rId159" tooltip="Macharian Cross" display="https://tacticus.fandom.com/wiki/Macharian_Cross" xr:uid="{93226CC9-A0DA-4E2A-A8B5-AAFFF954FD31}"/>
+    <hyperlink ref="A204" r:id="rId160" tooltip="Mars-Pattern Bionics" display="https://tacticus.fandom.com/wiki/Mars-Pattern_Bionics" xr:uid="{2BE8EA98-E5F9-495C-BA69-3A85751A5762}"/>
+    <hyperlink ref="A205" r:id="rId161" tooltip="Mutation: Metallic Skin" display="https://tacticus.fandom.com/wiki/Mutation:_Metallic_Skin" xr:uid="{26658AEB-006E-4239-9D9F-EF5A298337B9}"/>
+    <hyperlink ref="A206" r:id="rId162" tooltip="Mutation: Regenerative Blood" display="https://tacticus.fandom.com/wiki/Mutation:_Regenerative_Blood" xr:uid="{04DCA23D-D815-4856-826F-1D3548B85883}"/>
+    <hyperlink ref="A207" r:id="rId163" tooltip="Necrodermis Nano Scarab Swarm" display="https://tacticus.fandom.com/wiki/Necrodermis_Nano_Scarab_Swarm" xr:uid="{F1B9B1FB-A782-4605-B2A8-63262F79907B}"/>
+    <hyperlink ref="A208" r:id="rId164" tooltip="Nob Teef" display="https://tacticus.fandom.com/wiki/Nob_Teef" xr:uid="{623BBD30-78BF-4D06-BF47-6578AA18BF09}"/>
+    <hyperlink ref="A209" r:id="rId165" tooltip="Ominous Xenos Glyphs" display="https://tacticus.fandom.com/wiki/Ominous_Xenos_Glyphs" xr:uid="{00593533-3B0F-42BB-A287-9AFE17EFDE98}"/>
+    <hyperlink ref="A210" r:id="rId166" tooltip="Plasma Cell Crate" display="https://tacticus.fandom.com/wiki/Plasma_Cell_Crate" xr:uid="{B1AB155D-5E76-42C2-B0E8-81D6BDE32F03}"/>
+    <hyperlink ref="A211" r:id="rId167" tooltip="Power Weapon Field Node" display="https://tacticus.fandom.com/wiki/Power_Weapon_Field_Node" xr:uid="{24EC8422-855E-4D9F-AD09-0AB288EF34A1}"/>
+    <hyperlink ref="A212" r:id="rId168" tooltip="Refined Combat Stimms" display="https://tacticus.fandom.com/wiki/Refined_Combat_Stimms" xr:uid="{3ECBCCA4-E7AD-4919-BCC1-E7347E360AED}"/>
+    <hyperlink ref="A214" r:id="rId169" tooltip="Resurrection Protocols" display="https://tacticus.fandom.com/wiki/Resurrection_Protocols" xr:uid="{70241AB2-C07C-40F0-B198-38B108410522}"/>
+    <hyperlink ref="A215" r:id="rId170" tooltip="Roses of Sacrifice" display="https://tacticus.fandom.com/wiki/Roses_of_Sacrifice" xr:uid="{1F4B6AD6-8568-424A-A69E-18D665427C23}"/>
+    <hyperlink ref="A217" r:id="rId171" tooltip="Runic Talisman" display="https://tacticus.fandom.com/wiki/Runic_Talisman" xr:uid="{9079C830-8FEF-4F51-A972-96722FF9BAB8}"/>
+    <hyperlink ref="A218" r:id="rId172" tooltip="Sanctified Corset Armor" display="https://tacticus.fandom.com/wiki/Sanctified_Corset_Armor" xr:uid="{D18672C7-17AF-4F3F-A3AA-733464F13973}"/>
+    <hyperlink ref="A219" r:id="rId173" tooltip="Scale-Plate Mantle" display="https://tacticus.fandom.com/wiki/Scale-Plate_Mantle" xr:uid="{E8016B24-28E0-4E2F-9D08-01C698DF016A}"/>
+    <hyperlink ref="A220" r:id="rId174" tooltip="Sigil of Inevitable Decay" display="https://tacticus.fandom.com/wiki/Sigil_of_Inevitable_Decay" xr:uid="{E39BA007-3758-49E2-88AD-D2ABC6F27546}"/>
+    <hyperlink ref="A221" r:id="rId175" tooltip="Sophisticated Material Sheet" display="https://tacticus.fandom.com/wiki/Sophisticated_Material_Sheet" xr:uid="{139FC750-3379-46EB-90F9-406D3187C3C4}"/>
+    <hyperlink ref="A222" r:id="rId176" tooltip="Special Issue Ammo" display="https://tacticus.fandom.com/wiki/Special_Issue_Ammo" xr:uid="{9BE76D7D-529E-4E7D-A192-5DD49698D32A}"/>
+    <hyperlink ref="A223" r:id="rId177" tooltip="Spirit Stone" display="https://tacticus.fandom.com/wiki/Spirit_Stone" xr:uid="{1EC7D455-A91A-4198-9FBC-DF7CA3237AA3}"/>
+    <hyperlink ref="A224" r:id="rId178" tooltip="Terminator Honours" display="https://tacticus.fandom.com/wiki/Terminator_Honours" xr:uid="{D3D618A9-D754-429D-A975-6CF8CD3D573B}"/>
+    <hyperlink ref="A225" r:id="rId179" tooltip="Thunderwolf Tooth Necklace" display="https://tacticus.fandom.com/wiki/Thunderwolf_Tooth_Necklace" xr:uid="{C947E7DF-A273-41CB-8DA2-B570C08DC4BE}"/>
+    <hyperlink ref="A226" r:id="rId180" tooltip="Veteran's Entrenching Tool" display="https://tacticus.fandom.com/wiki/Veteran%27s_Entrenching_Tool" xr:uid="{8B19770D-910E-4169-809A-38F6DF4B49A2}"/>
+    <hyperlink ref="A227" r:id="rId181" tooltip="Warp Locus" display="https://tacticus.fandom.com/wiki/Warp_Locus" xr:uid="{06FD4A02-4B14-44AE-AFFE-3F5BB703023E}"/>
+    <hyperlink ref="A228" r:id="rId182" tooltip="Warp Touched Eye of Horus" display="https://tacticus.fandom.com/wiki/Warp_Touched_Eye_of_Horus" xr:uid="{ADFB36FA-32A5-4944-BDD7-1A0D19BCDFB9}"/>
+    <hyperlink ref="A229" r:id="rId183" tooltip="Adamantine Mantle" display="https://tacticus.fandom.com/wiki/Adamantine_Mantle" xr:uid="{EA1C4819-1B55-432F-B489-06D3DEFE6AE0}"/>
+    <hyperlink ref="A230" r:id="rId184" tooltip="Adamantium Plates" display="https://tacticus.fandom.com/wiki/Adamantium_Plates" xr:uid="{CE270A39-9B9D-4D34-AC82-ED3D351B79E9}"/>
+    <hyperlink ref="A231" r:id="rId185" tooltip="Advanced Exospine" display="https://tacticus.fandom.com/wiki/Advanced_Exospine" xr:uid="{CDF9BAC4-ECAA-44C0-9737-A925A83C8CF7}"/>
+    <hyperlink ref="A233" r:id="rId186" tooltip="Arbiter's Gaze" display="https://tacticus.fandom.com/wiki/Arbiter%27s_Gaze" xr:uid="{71F75C31-080D-4482-B42F-B53DDC46B70F}"/>
+    <hyperlink ref="A234" r:id="rId187" tooltip="Archeotech Bionics" display="https://tacticus.fandom.com/wiki/Archeotech_Bionics" xr:uid="{006AA51A-F1BA-4F86-A1D6-037FEBFB2EAC}"/>
+    <hyperlink ref="A235" r:id="rId188" tooltip="Artificer Flak Plates" display="https://tacticus.fandom.com/wiki/Artificer_Flak_Plates" xr:uid="{B5FC0805-A997-4DF4-A50B-B2C6A00FD558}"/>
+    <hyperlink ref="A236" r:id="rId189" tooltip="Autoloader" display="https://tacticus.fandom.com/wiki/Autoloader" xr:uid="{C6E44E21-AD73-452A-BDF1-B169F0490610}"/>
+    <hyperlink ref="A237" r:id="rId190" tooltip="Auto-Reactive Stimm Injector" display="https://tacticus.fandom.com/wiki/Auto-Reactive_Stimm_Injector" xr:uid="{047FCC5A-CE37-449D-9BE0-6946B93537D4}"/>
+    <hyperlink ref="A238" r:id="rId191" tooltip="Bastion Honour" display="https://tacticus.fandom.com/wiki/Bastion_Honour" xr:uid="{2FBD5EBF-1693-4457-9464-BF03B661A0CE}"/>
+    <hyperlink ref="A239" r:id="rId192" tooltip="Bell of Despair" display="https://tacticus.fandom.com/wiki/Bell_of_Despair" xr:uid="{644D9F5A-BCFA-4487-9927-056F6AD871D5}"/>
+    <hyperlink ref="A240" r:id="rId193" tooltip="Black Rune" display="https://tacticus.fandom.com/wiki/Black_Rune" xr:uid="{4F432E5F-F81F-4025-B82F-AAFD0829B13B}"/>
+    <hyperlink ref="A241" r:id="rId194" tooltip="Blessed Bolts" display="https://tacticus.fandom.com/wiki/Blessed_Bolts" xr:uid="{BE2F3E04-34E7-4A06-9B23-5C1448DE5DD2}"/>
+    <hyperlink ref="A242" r:id="rId195" tooltip="Blessed Promethium Tank" display="https://tacticus.fandom.com/wiki/Blessed_Promethium_Tank" xr:uid="{1DC39C28-D8D6-4B9B-AA77-260E2BAC5226}"/>
+    <hyperlink ref="A243" r:id="rId196" tooltip="Blessing of Nurgle" display="https://tacticus.fandom.com/wiki/Blessing_of_Nurgle" xr:uid="{DF81B4B3-BE94-4037-93F9-263305F314C1}"/>
+    <hyperlink ref="A244" r:id="rId197" tooltip="Blessing of the Dark Gods" display="https://tacticus.fandom.com/wiki/Blessing_of_the_Dark_Gods" xr:uid="{88680568-53BA-49B0-AC39-78D1DBF70843}"/>
+    <hyperlink ref="A246" r:id="rId198" tooltip="Bolts of Furious Vengeance" display="https://tacticus.fandom.com/wiki/Bolts_of_Furious_Vengeance" xr:uid="{E13BDAB3-ACFB-4E6E-A7F4-FFF7F8FB4F6E}"/>
+    <hyperlink ref="A247" r:id="rId199" tooltip="Bones of the Paragons" display="https://tacticus.fandom.com/wiki/Bones_of_the_Paragons" xr:uid="{9A2E77D2-E96F-4C4E-A324-167B1285E72D}"/>
+    <hyperlink ref="A248" r:id="rId200" tooltip="Bosspole" display="https://tacticus.fandom.com/wiki/Bosspole" xr:uid="{E8446F23-736C-4148-9275-A4E7F3484A70}"/>
+    <hyperlink ref="A249" r:id="rId201" tooltip="Candelabrum of Burning Wrath" display="https://tacticus.fandom.com/wiki/Candelabrum_of_Burning_Wrath" xr:uid="{59173530-37C6-47F5-80B4-1E76B8CB46EC}"/>
+    <hyperlink ref="A250" r:id="rId202" tooltip="Ceramite Plates" display="https://tacticus.fandom.com/wiki/Ceramite_Plates" xr:uid="{42581868-FD8C-4571-899D-5FBC91351EDE}"/>
+    <hyperlink ref="A251" r:id="rId203" tooltip="Chain of Zealous Wrath" display="https://tacticus.fandom.com/wiki/Chain_of_Zealous_Wrath" xr:uid="{1DEA06FD-FA95-42FB-B45E-EA8B2A9158DE}"/>
+    <hyperlink ref="A252" r:id="rId204" tooltip="Cloud of Flies" display="https://tacticus.fandom.com/wiki/Cloud_of_Flies" xr:uid="{21F0403E-F729-437D-B88E-4B4764F98E3B}"/>
+    <hyperlink ref="A253" r:id="rId205" tooltip="Codex Astartes" display="https://tacticus.fandom.com/wiki/Codex_Astartes" xr:uid="{F91D26C3-44AC-4A81-9993-7B4C81410EAE}"/>
+    <hyperlink ref="A254" r:id="rId206" tooltip="Codex Page" display="https://tacticus.fandom.com/wiki/Codex_Page" xr:uid="{EDA9670D-864F-4535-97E7-1674FFFAC238}"/>
+    <hyperlink ref="A255" r:id="rId207" tooltip="Cybork Body Parts" display="https://tacticus.fandom.com/wiki/Cybork_Body_Parts" xr:uid="{A855D98E-6687-4967-8F71-DAE51AFD1D2D}"/>
+    <hyperlink ref="A256" r:id="rId208" tooltip="Daemon Shells" display="https://tacticus.fandom.com/wiki/Daemon_Shells" xr:uid="{507B471A-7C54-488A-A5A5-C18ADCEAAE51}"/>
+    <hyperlink ref="A257" r:id="rId209" tooltip="Ded Brutal Iron Jaw" display="https://tacticus.fandom.com/wiki/Ded_Brutal_Iron_Jaw" xr:uid="{2921A92D-E774-4909-9702-B45B415A4592}"/>
+    <hyperlink ref="A258" r:id="rId210" tooltip="Ded Shiny 'Ard Plate" display="https://tacticus.fandom.com/wiki/Ded_Shiny_%27Ard_Plate" xr:uid="{48F388AE-3CD4-4BE3-AF4B-072B95F5A3F5}"/>
+    <hyperlink ref="A259" r:id="rId211" tooltip="Divine Cloak" display="https://tacticus.fandom.com/wiki/Divine_Cloak" xr:uid="{7E0D41C9-6A7F-4E1E-BC0F-6380886CF741}"/>
+    <hyperlink ref="A260" r:id="rId212" tooltip="Engram Neurochip" display="https://tacticus.fandom.com/wiki/Engram_Neurochip" xr:uid="{32E5C9B2-D045-406D-9AF6-33A630E01491}"/>
+    <hyperlink ref="A261" r:id="rId213" tooltip="Engrammatic Entangler" display="https://tacticus.fandom.com/wiki/Engrammatic_Entangler" xr:uid="{B6852FD6-7EAD-4392-AA7E-5D7133C05045}"/>
+    <hyperlink ref="A262" r:id="rId214" tooltip="Epaulettes of Renown" display="https://tacticus.fandom.com/wiki/Epaulettes_of_Renown" xr:uid="{15F00AB5-9B14-447D-AEFA-E632C5D5F3D9}"/>
+    <hyperlink ref="A263" r:id="rId215" tooltip="Frostblade" display="https://tacticus.fandom.com/wiki/Frostblade" xr:uid="{A440F88D-0EDB-42CE-9E4F-2D309E4B08D9}"/>
+    <hyperlink ref="A264" r:id="rId216" tooltip="Grandiose Skull Ornament" display="https://tacticus.fandom.com/wiki/Grandiose_Skull_Ornament" xr:uid="{8C68F6BB-DB78-412C-A508-1585DCE9D98E}"/>
+    <hyperlink ref="A265" r:id="rId217" tooltip="Heirloom Entrenching Tool" display="https://tacticus.fandom.com/wiki/Heirloom_Entrenching_Tool" xr:uid="{C08E8877-E129-40A6-A325-1A4495102FEF}"/>
+    <hyperlink ref="A266" r:id="rId218" tooltip="Hellfury Bolts" display="https://tacticus.fandom.com/wiki/Hellfury_Bolts" xr:uid="{FB82E5E6-9014-4E3D-9C8F-2B31F5A08C6A}"/>
+    <hyperlink ref="A267" r:id="rId219" tooltip="Holy Chaplet" display="https://tacticus.fandom.com/wiki/Holy_Chaplet" xr:uid="{BAD2550D-FB55-41A9-A0E7-C96D8BB4F2BD}"/>
+    <hyperlink ref="A268" r:id="rId220" tooltip="Holy Corset Armor" display="https://tacticus.fandom.com/wiki/Holy_Corset_Armor" xr:uid="{55BABFFB-E3A9-48B4-8A9E-2E66BFFD0DDE}"/>
+    <hyperlink ref="A269" r:id="rId221" tooltip="Honourifica Imperialis" display="https://tacticus.fandom.com/wiki/Honourifica_Imperialis" xr:uid="{1AA0A5F9-447C-4954-92C1-541FEFB45E45}"/>
+    <hyperlink ref="A270" r:id="rId222" tooltip="Hymn of the Divine" display="https://tacticus.fandom.com/wiki/Hymn_of_the_Divine" xr:uid="{3F9AA574-C26B-4828-9C06-6B513B4770F2}"/>
+    <hyperlink ref="A271" r:id="rId223" tooltip="Ice Wyrm Hide" display="https://tacticus.fandom.com/wiki/Ice_Wyrm_Hide" xr:uid="{7CC463CA-E994-4138-B82B-9D18994843D4}"/>
+    <hyperlink ref="A272" r:id="rId224" tooltip="Icon of Infernal Vengeance" display="https://tacticus.fandom.com/wiki/Icon_of_Infernal_Vengeance" xr:uid="{0FD1A076-31BD-4583-B75D-119A7059F3D2}"/>
+    <hyperlink ref="A273" r:id="rId225" tooltip="Immaterial Shroud" display="https://tacticus.fandom.com/wiki/Immaterial_Shroud" xr:uid="{655D22D2-D7F8-4C30-AFB9-23F4CB74F438}"/>
+    <hyperlink ref="A274" r:id="rId226" tooltip="Infernal Armor Trim" display="https://tacticus.fandom.com/wiki/Infernal_Armor_Trim" xr:uid="{546383F0-3920-435B-8F57-1D6C56D32B95}"/>
+    <hyperlink ref="A275" r:id="rId227" tooltip="Infernal Eye of Horus" display="https://tacticus.fandom.com/wiki/Infernal_Eye_of_Horus" xr:uid="{F761B75C-10B3-4A21-B054-794671CA68C8}"/>
+    <hyperlink ref="A276" r:id="rId228" tooltip="Inner Circle Hood" display="https://tacticus.fandom.com/wiki/Inner_Circle_Hood" xr:uid="{681792A5-600D-4F8B-ABD2-72048F8CECFB}"/>
+    <hyperlink ref="A277" r:id="rId229" tooltip="Iridium Plating" display="https://tacticus.fandom.com/wiki/Iridium_Plating" xr:uid="{69A9518C-46E6-4F7F-A2B5-B9598DA774D3}"/>
+    <hyperlink ref="A278" r:id="rId230" tooltip="Key of Achrabael" display="https://tacticus.fandom.com/wiki/Key_of_Achrabael" xr:uid="{778B9F20-33F0-4049-B74B-00FF52C9012A}"/>
+    <hyperlink ref="A279" r:id="rId231" tooltip="Kraken Tooth Necklace" display="https://tacticus.fandom.com/wiki/Kraken_Tooth_Necklace" xr:uid="{2745FE65-2F74-44AF-8F46-2DF2547B31CE}"/>
+    <hyperlink ref="A280" r:id="rId232" tooltip="Kustom Gubbinz" display="https://tacticus.fandom.com/wiki/Kustom_Gubbinz" xr:uid="{C6608A31-B2DF-432D-A42D-D9759FBFD103}"/>
+    <hyperlink ref="A281" r:id="rId233" tooltip="Legendary Reliquary of Protection" display="https://tacticus.fandom.com/wiki/Legendary_Reliquary_of_Protection" xr:uid="{35D33F81-AF4E-4965-BAD1-D54E7FEF9571}"/>
+    <hyperlink ref="A282" r:id="rId234" tooltip="Legendary Reliquary of Vengeance" display="https://tacticus.fandom.com/wiki/Legendary_Reliquary_of_Vengeance" xr:uid="{D6DE98C5-D124-467D-91EE-5406C1BD64EC}"/>
+    <hyperlink ref="A283" r:id="rId235" tooltip="Mark of Chaos Undivided" display="https://tacticus.fandom.com/wiki/Mark_of_Chaos_Undivided" xr:uid="{8195F8BB-5B63-4443-8C08-DCB0E6A4A32A}"/>
+    <hyperlink ref="A284" r:id="rId236" tooltip="Mark of Nurgle" display="https://tacticus.fandom.com/wiki/Mark_of_Nurgle" xr:uid="{CBF84A02-2B35-4AD8-8FBB-486FF4CDF48F}"/>
+    <hyperlink ref="A285" r:id="rId237" tooltip="Master-Crafted Ammo" display="https://tacticus.fandom.com/wiki/Master-Crafted_Ammo" xr:uid="{4A5525E8-D290-4C0C-8989-2029B69F65FE}"/>
+    <hyperlink ref="A286" r:id="rId238" tooltip="Medallion Resolute" display="https://tacticus.fandom.com/wiki/Medallion_Resolute" xr:uid="{355D5635-7765-4BC2-B6E0-BE9F768FA44D}"/>
+    <hyperlink ref="A288" r:id="rId239" tooltip="Molecular Vaporiser" display="https://tacticus.fandom.com/wiki/Molecular_Vaporiser" xr:uid="{DCB5CC32-3030-46D9-80AF-19CFE21C3644}"/>
+    <hyperlink ref="A289" r:id="rId240" tooltip="Multi-Spectrum Sensor Suite" display="https://tacticus.fandom.com/wiki/Multi-Spectrum_Sensor_Suite" xr:uid="{7E101E57-7DEB-4713-BFCE-1D39570813AF}"/>
+    <hyperlink ref="A290" r:id="rId241" tooltip="Mutation: Daemonic Power" display="https://tacticus.fandom.com/wiki/Mutation:_Daemonic_Power" xr:uid="{F6F24064-7E5B-45D7-8A4F-0EF678A4B1E7}"/>
+    <hyperlink ref="A291" r:id="rId242" tooltip="Mutation: Impenetrable Skin" display="https://tacticus.fandom.com/wiki/Mutation:_Impenetrable_Skin" xr:uid="{7E224910-2365-49C6-AF05-DF3D465AC229}"/>
+    <hyperlink ref="A292" r:id="rId243" tooltip="Mysterious Shielding Device" display="https://tacticus.fandom.com/wiki/Mysterious_Shielding_Device" xr:uid="{4AE172C5-491F-411A-98E2-A7CF7BD324BE}"/>
+    <hyperlink ref="A293" r:id="rId244" tooltip="Octarian Crusade Seal" display="https://tacticus.fandom.com/wiki/Octarian_Crusade_Seal" xr:uid="{F36A8E33-9C02-49B5-9840-B29D6832BE64}"/>
+    <hyperlink ref="A294" r:id="rId245" tooltip="Overcapacitator" display="https://tacticus.fandom.com/wiki/Overcapacitator" xr:uid="{9EDE8616-0560-41E9-AC33-6455CDE5136E}"/>
+    <hyperlink ref="A295" r:id="rId246" tooltip="Perfidious Relic of the Unforgiven" display="https://tacticus.fandom.com/wiki/Perfidious_Relic_of_the_Unforgiven" xr:uid="{9A432498-7AFF-46D2-8FEA-DBB1E777FAD5}"/>
+    <hyperlink ref="A296" r:id="rId247" tooltip="Personal Saga" display="https://tacticus.fandom.com/wiki/Personal_Saga" xr:uid="{96919A2D-EE84-4FAE-B83E-42C09A77439A}"/>
+    <hyperlink ref="A297" r:id="rId248" tooltip="Phylacterine Hive" display="https://tacticus.fandom.com/wiki/Phylacterine_Hive" xr:uid="{5FAB120E-5CB4-40BA-9E06-BD9E0F5BB719}"/>
+    <hyperlink ref="A298" r:id="rId249" tooltip="Portentious Xenos Glyphs" display="https://tacticus.fandom.com/wiki/Portentious_Xenos_Glyphs" xr:uid="{4B3C6C05-99AD-4B66-BFAE-E7F7C6AC3643}"/>
+    <hyperlink ref="A299" r:id="rId250" tooltip="Powered Blades" display="https://tacticus.fandom.com/wiki/Powered_Blades" xr:uid="{9EE08E1C-EF53-4184-BB35-C75765B33B5D}"/>
+    <hyperlink ref="A300" r:id="rId251" tooltip="Protocol of the Eternal Guardian" display="https://tacticus.fandom.com/wiki/Protocol_of_the_Eternal_Guardian" xr:uid="{8AD6C2B4-45BA-488E-BD04-3622A1183FE8}"/>
+    <hyperlink ref="A301" r:id="rId252" tooltip="Purity Seal of the Primarch" display="https://tacticus.fandom.com/wiki/Purity_Seal_of_the_Primarch" xr:uid="{9A0EC976-BA2E-4249-A578-1139A96C0357}"/>
+    <hyperlink ref="A302" r:id="rId253" tooltip="Relic Auxiliary Core" display="https://tacticus.fandom.com/wiki/Relic_Auxiliary_Core" xr:uid="{F07057C8-23F8-4F12-816D-9221665AFE36}"/>
+    <hyperlink ref="A303" r:id="rId254" tooltip="Relic Bionic Enhancement" display="https://tacticus.fandom.com/wiki/Relic_Bionic_Enhancement" xr:uid="{1F25ABD9-B1B7-483E-8EC4-A00DC471F1BA}"/>
+    <hyperlink ref="A304" r:id="rId255" tooltip="Relic Micro-Generator" display="https://tacticus.fandom.com/wiki/Relic_Micro-Generator" xr:uid="{64D7291C-F0BB-46F4-9481-D9DD1FD7E473}"/>
+    <hyperlink ref="A305" r:id="rId256" tooltip="Relic Tasset Plate" display="https://tacticus.fandom.com/wiki/Relic_Tasset_Plate" xr:uid="{B0CAA8DD-AD53-4699-BA7C-5A4145652A59}"/>
+    <hyperlink ref="A306" r:id="rId257" tooltip="Resplendent Spirit Stone" display="https://tacticus.fandom.com/wiki/Resplendent_Spirit_Stone" xr:uid="{EFA1E386-EE9F-43ED-82F6-7934A5372ACA}"/>
+    <hyperlink ref="A307" r:id="rId258" tooltip="Roses of the Divine" display="https://tacticus.fandom.com/wiki/Roses_of_the_Divine" xr:uid="{B0483A4D-DAB5-4643-9830-A91560A92F84}"/>
+    <hyperlink ref="A308" r:id="rId259" tooltip="Runes of Fate" display="https://tacticus.fandom.com/wiki/Runes_of_Fate" xr:uid="{C21DFA93-46F6-4FDA-980E-D1BAFD4E13BB}"/>
+    <hyperlink ref="A309" r:id="rId260" tooltip="Sabbat-Pattern Visor" display="https://tacticus.fandom.com/wiki/Sabbat-Pattern_Visor" xr:uid="{AC83C28B-AAE1-4D22-BE95-33B41433A7EA}"/>
+    <hyperlink ref="A310" r:id="rId261" tooltip="Sash of Honors" display="https://tacticus.fandom.com/wiki/Sash_of_Honors" xr:uid="{90ABB7F0-94E6-4001-A5E9-00EFA8DF5FD3}"/>
+    <hyperlink ref="A311" r:id="rId262" tooltip="Scriptures of Battle" display="https://tacticus.fandom.com/wiki/Scriptures_of_Battle" xr:uid="{442E3E77-E163-4DBD-960B-5727F1ED76E6}"/>
+    <hyperlink ref="A312" r:id="rId263" tooltip="Scriptures of Fate" display="https://tacticus.fandom.com/wiki/Scriptures_of_Fate" xr:uid="{97829DA2-A104-4EAA-83CC-3D7A03B938EC}"/>
+    <hyperlink ref="A313" r:id="rId264" tooltip="Scriptures of Fortune" display="https://tacticus.fandom.com/wiki/Scriptures_of_Fortune" xr:uid="{26562BEA-6676-433F-B175-4C502A74D0AE}"/>
+    <hyperlink ref="A314" r:id="rId265" tooltip="Seal of the Emperor's Protection" display="https://tacticus.fandom.com/wiki/Seal_of_the_Emperor%27s_Protection" xr:uid="{E0347ACF-CA74-4158-BEC7-B59F2A0CBAC1}"/>
+    <hyperlink ref="A315" r:id="rId266" tooltip="Sentry AI Drone Controller" display="https://tacticus.fandom.com/wiki/Sentry_AI_Drone_Controller" xr:uid="{4211092A-2451-4E14-BC1F-3621D5A8B35F}"/>
+    <hyperlink ref="A316" r:id="rId267" tooltip="Shiny Boss Teef" display="https://tacticus.fandom.com/wiki/Shiny_Boss_Teef" xr:uid="{14501B94-3B60-4AB1-88BB-67D0609F68F5}"/>
+    <hyperlink ref="A317" r:id="rId268" tooltip="Shroud of Heroes" display="https://tacticus.fandom.com/wiki/Shroud_of_Heroes" xr:uid="{9AD758C3-820B-488C-A75C-C8AED82459D4}"/>
+    <hyperlink ref="A318" r:id="rId269" tooltip="Sigil of Eternal Decay" display="https://tacticus.fandom.com/wiki/Sigil_of_Eternal_Decay" xr:uid="{3729974A-9611-471B-98C5-E32155789C76}"/>
+    <hyperlink ref="A319" r:id="rId270" tooltip="Simulacrum Sanctorum" display="https://tacticus.fandom.com/wiki/Simulacrum_Sanctorum" xr:uid="{326D08BE-19B5-4B2E-BBE6-48FF3BEFD2C7}"/>
+    <hyperlink ref="A320" r:id="rId271" tooltip="Snazzy Dakka" display="https://tacticus.fandom.com/wiki/Snazzy_Dakka" xr:uid="{6EFC3F05-3E7C-40B7-BDB5-6593F481AD21}"/>
+    <hyperlink ref="A321" r:id="rId272" tooltip="Sophisticated Material Plates" display="https://tacticus.fandom.com/wiki/Sophisticated_Material_Plates" xr:uid="{4C414921-4110-4FA3-B71A-680E2FF8E114}"/>
+    <hyperlink ref="A322" r:id="rId273" tooltip="Soul-Bonded Psytronome" display="https://tacticus.fandom.com/wiki/Soul-Bonded_Psytronome" xr:uid="{C2BE2D44-BADD-4588-B9C0-6AFBAA2BD175}"/>
+    <hyperlink ref="A323" r:id="rId274" tooltip="Soul-Bonded Wraithbone Plate" display="https://tacticus.fandom.com/wiki/Soul-Bonded_Wraithbone_Plate" xr:uid="{6C518F02-81EA-4B54-BC44-97C2CBA6275C}"/>
+    <hyperlink ref="A324" r:id="rId275" tooltip="Stone Guardian Fragment" display="https://tacticus.fandom.com/wiki/Stone_Guardian_Fragment" xr:uid="{3815D85C-DDBD-42F7-A1CA-25D264AD9CA2}"/>
+    <hyperlink ref="A325" r:id="rId276" tooltip="Tabbard of Righteous Wrath" display="https://tacticus.fandom.com/wiki/Tabbard_of_Righteous_Wrath" xr:uid="{BDA70773-EDF3-4086-8FDD-AFCF69F84C0D}"/>
+    <hyperlink ref="A326" r:id="rId277" tooltip="Talisman of Storms" display="https://tacticus.fandom.com/wiki/Talisman_of_Storms" xr:uid="{3E88C8A8-C381-4E4F-B114-AFFAB359A0FF}"/>
+    <hyperlink ref="A327" r:id="rId278" tooltip="Target Lock" display="https://tacticus.fandom.com/wiki/Target_Lock" xr:uid="{112B2225-9082-4C18-92E9-2357ABCBBE77}"/>
+    <hyperlink ref="A328" r:id="rId279" tooltip="Ta'Lissera Bond" display="https://tacticus.fandom.com/wiki/Ta%27Lissera_Bond" xr:uid="{BA0E14FB-D404-40F2-84F8-1AF20CC22E91}"/>
+    <hyperlink ref="A329" r:id="rId280" tooltip="Tannhauser's Bones" display="https://tacticus.fandom.com/wiki/Tannhauser%27s_Bones" xr:uid="{DB72DCBF-3E35-42CD-9AA9-35AED68C632C}"/>
+    <hyperlink ref="A330" r:id="rId281" tooltip="Tome of Arcane Knowledge" display="https://tacticus.fandom.com/wiki/Tome_of_Arcane_Knowledge" xr:uid="{40C0017A-8877-4841-B798-371B3AD83CFC}"/>
+    <hyperlink ref="A331" r:id="rId282" tooltip="Transdimensional Sanctum" display="https://tacticus.fandom.com/wiki/Transdimensional_Sanctum" xr:uid="{3DF60859-018A-46D2-A71C-DF5D2E48E05F}"/>
+    <hyperlink ref="A332" r:id="rId283" tooltip="Virulent Rounds" display="https://tacticus.fandom.com/wiki/Virulent_Rounds" xr:uid="{AE4BB574-9DD6-47E5-A8D3-73A207282D01}"/>
+    <hyperlink ref="A333" r:id="rId284" tooltip="Warpweave Robe" display="https://tacticus.fandom.com/wiki/Warpweave_Robe" xr:uid="{54511AF7-823B-450C-BF0D-4899DC8A8829}"/>
+    <hyperlink ref="A334" r:id="rId285" tooltip="Witchseeker Bolts" display="https://tacticus.fandom.com/wiki/Witchseeker_Bolts" xr:uid="{E65F8BCD-B04B-4DA2-83E4-70F415E5D7F4}"/>
     <hyperlink ref="A2" r:id="rId286" tooltip="Adamantium Filaments" display="https://tacticus.fandom.com/wiki/Adamantium_Filaments" xr:uid="{6FECFF53-CACC-41B5-9FA0-D1718F618014}"/>
     <hyperlink ref="A3" r:id="rId287" tooltip="Adamantium Ore" display="https://tacticus.fandom.com/wiki/Adamantium_Ore" xr:uid="{B476308B-F7A3-4B15-8EC6-9B581101C336}"/>
     <hyperlink ref="A4" r:id="rId288" tooltip="Armor Trim" display="https://tacticus.fandom.com/wiki/Armor_Trim" xr:uid="{32D42109-AD70-4813-9144-514FFA5E6B66}"/>
@@ -6214,8 +8668,9 @@
     <hyperlink ref="A39" r:id="rId323" tooltip="Weapon Anointment Oils" display="https://tacticus.fandom.com/wiki/Weapon_Anointment_Oils" xr:uid="{773795A9-1545-447E-A588-2FED5AECBBF8}"/>
     <hyperlink ref="A40" r:id="rId324" tooltip="Weapon Parts" display="https://tacticus.fandom.com/wiki/Weapon_Parts" xr:uid="{128264C6-4BBD-486F-A46E-F88E2E2C58F1}"/>
     <hyperlink ref="A41" r:id="rId325" tooltip="Wires" display="https://tacticus.fandom.com/wiki/Wires" xr:uid="{A04327C2-67EF-40FA-9051-078AD66D75B9}"/>
+    <hyperlink ref="E185" r:id="rId326" tooltip="'Ard Plate" display="https://tacticus.fandom.com/wiki/%27Ard_Plate" xr:uid="{3A47ACCA-1ADC-4B6C-8596-2E9D71CCF797}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId326"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId327"/>
 </worksheet>
 </file>